--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFDCA61-5E70-F244-A153-5D33016DCD46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB0626-3013-874F-85FF-7C0361D7B6E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6126,82 +6126,89 @@
         <v>84.571428571428569</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>143</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>98.857142857142861</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -6227,7 +6234,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11230,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11618,82 +11625,89 @@
         <v>1.5714285714285714</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>0</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -11719,7 +11733,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16418,7 +16432,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16806,82 +16820,89 @@
         <v>54.857142857142854</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>44</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>55.857142857142854</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -16906,8 +16927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22056,82 +22077,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>129</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" ref="D401" si="27">AVERAGE(C395:C401)</f>
+        <v>119.42857142857143</v>
+      </c>
+      <c r="E401">
+        <f t="shared" ref="E401" si="28">C401-C400</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -22157,7 +22189,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26858,7 +26890,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27246,82 +27278,89 @@
         <v>7.8571428571428568</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>9</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB0626-3013-874F-85FF-7C0361D7B6E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD75D8B-B6BE-AC46-AC3B-9B12CA0C4890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6141,6 +6141,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>133</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>110.42857142857143</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6234,7 +6241,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11237,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11640,6 +11647,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>1</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11733,7 +11747,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16432,7 +16446,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16835,6 +16849,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>56</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>55.285714285714285</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -16927,8 +16948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22096,6 +22117,17 @@
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>135</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" ref="D402" si="29">AVERAGE(C396:C402)</f>
+        <v>123.42857142857143</v>
+      </c>
+      <c r="E402">
+        <f t="shared" ref="E402" si="30">C402-C401</f>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -22188,8 +22220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26890,7 +26922,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27293,6 +27325,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>8</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD75D8B-B6BE-AC46-AC3B-9B12CA0C4890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04B0E3-B831-8448-ACD2-BEBA08A98D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6153,6 +6153,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>115</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>114.42857142857143</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6241,7 +6248,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11244,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11659,6 +11666,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>4</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11747,7 +11761,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16446,7 +16460,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16861,6 +16875,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>84</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>57.714285714285715</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -16949,7 +16970,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22133,6 +22154,17 @@
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>128</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" ref="D403" si="31">AVERAGE(C397:C403)</f>
+        <v>126.14285714285714</v>
+      </c>
+      <c r="E403">
+        <f t="shared" ref="E403" si="32">C403-C402</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -22220,8 +22252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26922,7 +26954,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27337,6 +27369,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>8</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04B0E3-B831-8448-ACD2-BEBA08A98D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6FB75D-B025-284F-9C7D-4BD62EC3F2DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6165,6 +6165,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>146</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>124.14285714285714</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6248,7 +6255,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11251,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11678,6 +11685,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>0</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11761,7 +11775,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16460,7 +16474,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16887,6 +16901,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>74</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>61.142857142857146</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -16969,8 +16990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22170,6 +22191,17 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>131</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" ref="D404" si="33">AVERAGE(C398:C404)</f>
+        <v>127.71428571428571</v>
+      </c>
+      <c r="E404">
+        <f t="shared" ref="E404" si="34">C404-C403</f>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -22252,8 +22284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26954,7 +26986,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27381,6 +27413,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>9</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6FB75D-B025-284F-9C7D-4BD62EC3F2DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6E1A6-49FD-3848-969D-0EB148EBC2B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6177,6 +6177,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>126</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>125.14285714285714</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6255,7 +6262,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11258,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11697,6 +11704,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>0</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11774,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16474,7 +16488,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16913,6 +16927,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>57</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -16990,8 +17011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22207,6 +22228,17 @@
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>133</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" ref="D405" si="35">AVERAGE(C399:C405)</f>
+        <v>129.42857142857142</v>
+      </c>
+      <c r="E405">
+        <f t="shared" ref="E405" si="36">C405-C404</f>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -22284,8 +22316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26986,7 +27018,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27425,6 +27457,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>10</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>8.4285714285714288</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6E1A6-49FD-3848-969D-0EB148EBC2B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D611F64A-D7CC-5244-AAE3-13DD9383595A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6189,6 +6189,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>158</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>130.57142857142858</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6262,7 +6269,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11265,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11716,6 +11723,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>3</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11788,8 +11802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16488,7 +16502,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16939,6 +16953,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>95</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>66.571428571428569</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -17011,8 +17032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22244,6 +22265,17 @@
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>132</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" ref="D406" si="37">AVERAGE(C400:C406)</f>
+        <v>131</v>
+      </c>
+      <c r="E406">
+        <f t="shared" ref="E406" si="38">C406-C405</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -22317,7 +22349,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27018,7 +27050,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27469,6 +27501,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>11</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D611F64A-D7CC-5244-AAE3-13DD9383595A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E231BF1-EE57-7845-8B17-F742A989A533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2420" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6202,10 +6202,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>120</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>134.42857142857142</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>139</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>133.85714285714286</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6269,7 +6283,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11272,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11736,10 +11750,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>2</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>2</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11803,7 +11831,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16502,7 +16530,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -16966,10 +16994,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>42</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>64.571428571428569</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>93</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>71.571428571428569</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -17032,8 +17074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22282,10 +22324,32 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>136</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" ref="D407" si="39">AVERAGE(C401:C407)</f>
+        <v>132</v>
+      </c>
+      <c r="E407">
+        <f t="shared" ref="E407" si="40">C407-C406</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>131</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" ref="D408" si="41">AVERAGE(C402:C408)</f>
+        <v>132.28571428571428</v>
+      </c>
+      <c r="E408">
+        <f t="shared" ref="E408" si="42">C408-C407</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -22349,7 +22413,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27050,7 +27114,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27514,10 +27578,24 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
+      <c r="C407" s="2">
+        <v>10</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2857142857142865</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>9</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2857142857142865</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E231BF1-EE57-7845-8B17-F742A989A533}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03642855-A4A2-2F49-8B78-CB667C465494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6225,6 +6225,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>94</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>128.28571428571428</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6283,7 +6290,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11286,7 +11293,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11773,6 +11780,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>0</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11831,7 +11845,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16530,7 +16544,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17017,6 +17031,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>83</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>75.428571428571431</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -17074,8 +17095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22355,6 +22376,17 @@
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>131</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" ref="D409" si="43">AVERAGE(C403:C409)</f>
+        <v>131.71428571428572</v>
+      </c>
+      <c r="E409">
+        <f t="shared" ref="E409" si="44">C409-C408</f>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -22413,7 +22445,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27114,7 +27146,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27601,6 +27633,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>9</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03642855-A4A2-2F49-8B78-CB667C465494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB312D1-D9C1-D148-8C81-E8DA6C15B325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7280" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5738,7 +5738,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6237,6 +6237,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>108</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>127.28571428571429</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6290,7 +6297,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11293,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11792,6 +11799,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>1</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11845,7 +11859,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16544,7 +16558,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17043,6 +17057,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>90</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>76.285714285714292</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -17095,8 +17116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22392,6 +22413,17 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>131</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" ref="D410" si="45">AVERAGE(C404:C410)</f>
+        <v>132.14285714285714</v>
+      </c>
+      <c r="E410">
+        <f t="shared" ref="E410" si="46">C410-C409</f>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -22444,8 +22476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27146,7 +27178,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27645,6 +27677,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>8</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB312D1-D9C1-D148-8C81-E8DA6C15B325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0F315-C1EE-AF42-AA75-FCCC3626BD04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>data</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Terapia intensiva</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
 </sst>
 </file>
@@ -430,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A410" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,12 +993,12 @@
         <v>43938</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>7</v>
+      <c r="C40" s="2">
+        <v>0</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>2.1666666666666665</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="G40" s="1"/>
       <c r="J40" s="1"/>
@@ -1016,7 +1013,7 @@
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="G41" s="1"/>
       <c r="J41" s="1"/>
@@ -1031,7 +1028,7 @@
       </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>1.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1"/>
       <c r="J42" s="1"/>
@@ -1046,7 +1043,7 @@
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="G43" s="1"/>
       <c r="J43" s="1"/>
@@ -1061,7 +1058,7 @@
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G44" s="1"/>
       <c r="J44" s="1"/>
@@ -1076,7 +1073,7 @@
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G45" s="1"/>
       <c r="J45" s="1"/>
@@ -1091,7 +1088,7 @@
       </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G46" s="1"/>
       <c r="J46" s="1"/>
@@ -22476,7 +22473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+    <sheetView topLeftCell="A382" workbookViewId="0">
       <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0F315-C1EE-AF42-AA75-FCCC3626BD04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC5C3F-100A-2547-AF80-DF6DDE8F4DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A410" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6246,6 +6246,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>116</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -6294,7 +6301,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11297,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11808,6 +11815,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>2</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11855,8 +11869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16555,7 +16569,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17066,6 +17080,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>105</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>80.714285714285708</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -17114,7 +17135,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22426,6 +22447,17 @@
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>132</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" ref="D411" si="47">AVERAGE(C405:C411)</f>
+        <v>132.28571428571428</v>
+      </c>
+      <c r="E411">
+        <f t="shared" ref="E411" si="48">C411-C410</f>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -22474,7 +22506,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27175,7 +27207,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27686,6 +27718,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>9</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC5C3F-100A-2547-AF80-DF6DDE8F4DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DEF53-E693-7640-9E3A-A219ACB2D168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6258,6 +6258,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>156</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>127.28571428571429</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,7 +6308,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11304,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11827,6 +11834,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>2</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11869,8 +11883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16569,7 +16583,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17092,6 +17106,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>155</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>94.714285714285708</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -17135,7 +17156,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22463,6 +22484,17 @@
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>135</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" ref="D412" si="49">AVERAGE(C406:C412)</f>
+        <v>132.57142857142858</v>
+      </c>
+      <c r="E412">
+        <f t="shared" ref="E412" si="50">C412-C411</f>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -22506,7 +22538,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27207,7 +27239,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27730,6 +27762,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>10</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2671965B-AA50-144B-964D-2EBD3FBF8FCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F5FE3F-65A1-6A40-A430-9520736B1F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6282,6 +6282,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>142</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>121.57142857142857</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11318,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11865,6 +11872,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11897,8 +11911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16597,7 +16611,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17144,6 +17158,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>38</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>88.714285714285708</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -17176,8 +17197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D413"/>
+    <sheetView topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22537,6 +22558,17 @@
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>141</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" ref="D414" si="53">AVERAGE(C408:C414)</f>
+        <v>133.71428571428572</v>
+      </c>
+      <c r="E414">
+        <f t="shared" ref="E414" si="54">C414-C413</f>
+        <v>6</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -22569,8 +22601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27271,7 +27303,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27818,6 +27850,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>10</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2857142857142865</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F5FE3F-65A1-6A40-A430-9520736B1F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7E6A3-7A67-7B4E-8617-55EC7B5F1C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6294,6 +6294,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>129</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>120.14285714285714</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6322,7 +6329,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D412" sqref="D412"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11325,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11884,6 +11891,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11912,7 +11926,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16611,7 +16625,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17170,6 +17184,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>55</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>83.285714285714292</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -17197,8 +17218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22574,6 +22595,17 @@
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>133</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" ref="D415" si="55">AVERAGE(C409:C415)</f>
+        <v>134</v>
+      </c>
+      <c r="E415">
+        <f t="shared" ref="E415" si="56">C415-C414</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -22601,8 +22633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27303,7 +27335,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27862,6 +27894,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>8</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>9.1428571428571423</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7E6A3-7A67-7B4E-8617-55EC7B5F1C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C92A06-0D3D-FD4B-B5A8-B95821800259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6306,6 +6306,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>143</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>127.14285714285714</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -6329,7 +6336,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11332,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11903,6 +11910,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -11926,7 +11940,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16625,7 +16639,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17196,6 +17210,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>111</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>87.285714285714292</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -17218,8 +17239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+    <sheetView topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22611,6 +22632,17 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>135</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" ref="D416" si="57">AVERAGE(C410:C416)</f>
+        <v>134.57142857142858</v>
+      </c>
+      <c r="E416">
+        <f t="shared" ref="E416" si="58">C416-C415</f>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -22634,7 +22666,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27335,7 +27367,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27906,6 +27938,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>7</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>8.8571428571428577</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C92A06-0D3D-FD4B-B5A8-B95821800259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC30EDE-EF1B-A340-9084-1E268BAD0034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6315,12 +6315,19 @@
         <v>127.14285714285714</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>129</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>130.14285714285714</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -6336,7 +6343,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11339,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11919,12 +11926,19 @@
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -11940,7 +11954,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16639,7 +16653,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17219,12 +17233,19 @@
         <v>87.285714285714292</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>117</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>91.142857142857139</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -17240,7 +17261,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22645,12 +22666,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>142</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" ref="D417" si="59">AVERAGE(C411:C417)</f>
+        <v>136.14285714285714</v>
+      </c>
+      <c r="E417">
+        <f t="shared" ref="E417" si="60">C417-C416</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -22665,8 +22697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27367,7 +27399,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27947,12 +27979,19 @@
         <v>8.8571428571428577</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>9</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC30EDE-EF1B-A340-9084-1E268BAD0034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E560F719-4868-E945-ABF5-A3E1B92E5BD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6330,6 +6330,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>158</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>136.14285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +6350,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11346,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11941,6 +11948,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
   </sheetData>
@@ -11953,8 +11967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16653,7 +16667,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17248,6 +17262,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>87</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>88.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -17261,7 +17282,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22685,6 +22706,17 @@
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>141</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" ref="D418" si="61">AVERAGE(C412:C418)</f>
+        <v>137.42857142857142</v>
+      </c>
+      <c r="E418">
+        <f t="shared" ref="E418" si="62">C418-C417</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -22697,8 +22729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27399,7 +27431,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -27994,6 +28026,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>8</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>8.8571428571428577</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E560F719-4868-E945-ABF5-A3E1B92E5BD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2605070-D2BE-8B44-A095-4079D7783151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5740" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J418"/>
+  <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6337,6 +6337,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>136.14285714285714</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>49</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>120.85714285714286</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>79</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>118.42857142857143</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>120</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>115.28571428571429</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -6347,10 +6523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G418"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11353,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -11955,6 +12131,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -11965,10 +12317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16667,7 +17019,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17269,6 +17621,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>88.571428571428569</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>120</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>83.571428571428569</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>107</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>90.714285714285708</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>122</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>102.71428571428571</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -17279,10 +17807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22719,6 +23247,194 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>129</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" ref="D419" si="63">AVERAGE(C413:C419)</f>
+        <v>136.57142857142858</v>
+      </c>
+      <c r="E419">
+        <f t="shared" ref="E419" si="64">C419-C418</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>118</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" ref="D420" si="65">AVERAGE(C414:C420)</f>
+        <v>134.14285714285714</v>
+      </c>
+      <c r="E420">
+        <f t="shared" ref="E420" si="66">C420-C419</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>125</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" ref="D421" si="67">AVERAGE(C415:C421)</f>
+        <v>131.85714285714286</v>
+      </c>
+      <c r="E421">
+        <f t="shared" ref="E421" si="68">C421-C420</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22727,10 +23443,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419:C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27431,7 +28147,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -28033,6 +28749,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>8</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>9</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>8</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2605070-D2BE-8B44-A095-4079D7783151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8B670-2767-8B44-9CE1-5288EDBA0095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6378,6 +6378,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>132</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>115.71428571428571</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6526,7 +6533,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11529,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12172,6 +12179,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12320,7 +12334,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17019,7 +17033,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17662,6 +17676,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>137</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>114.42857142857143</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -17809,8 +17830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23252,15 +23273,15 @@
         <v>44317</v>
       </c>
       <c r="C419">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D419" s="3">
         <f t="shared" ref="D419" si="63">AVERAGE(C413:C419)</f>
-        <v>136.57142857142858</v>
+        <v>137.42857142857142</v>
       </c>
       <c r="E419">
         <f t="shared" ref="E419" si="64">C419-C418</f>
-        <v>-12</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -23268,15 +23289,15 @@
         <v>44318</v>
       </c>
       <c r="C420">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D420" s="3">
         <f t="shared" ref="D420" si="65">AVERAGE(C414:C420)</f>
-        <v>134.14285714285714</v>
+        <v>136.14285714285714</v>
       </c>
       <c r="E420">
         <f t="shared" ref="E420" si="66">C420-C419</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -23284,11 +23305,11 @@
         <v>44319</v>
       </c>
       <c r="C421">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D421" s="3">
         <f t="shared" ref="D421" si="67">AVERAGE(C415:C421)</f>
-        <v>131.85714285714286</v>
+        <v>135</v>
       </c>
       <c r="E421">
         <f t="shared" ref="E421" si="68">C421-C420</f>
@@ -23298,6 +23319,17 @@
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>133</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" ref="D422" si="69">AVERAGE(C416:C422)</f>
+        <v>135</v>
+      </c>
+      <c r="E422">
+        <f t="shared" ref="E422" si="70">C422-C421</f>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -23445,8 +23477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419:C421"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28147,7 +28179,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -28790,6 +28822,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>9</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>8.2857142857142865</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8B670-2767-8B44-9CE1-5288EDBA0095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB5890-3969-054D-97AB-0D43AAB1C4ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5580" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6390,6 +6390,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>86</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>107.57142857142857</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6533,7 +6540,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11536,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12191,6 +12198,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12334,7 +12348,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17033,7 +17047,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17688,6 +17702,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>119</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>115.57142857142857</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -17831,7 +17852,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+      <selection activeCell="F426" sqref="F426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23335,6 +23356,17 @@
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>126</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" ref="D423" si="71">AVERAGE(C417:C423)</f>
+        <v>133.71428571428572</v>
+      </c>
+      <c r="E423">
+        <f t="shared" ref="E423" si="72">C423-C422</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -23478,7 +23510,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28179,7 +28211,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -28834,6 +28866,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>9</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB5890-3969-054D-97AB-0D43AAB1C4ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCC187-715B-4C43-BC73-7F6751F53E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6402,6 +6402,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>75</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>99.857142857142861</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6540,7 +6547,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11543,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12210,6 +12217,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>5</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12348,7 +12362,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17047,7 +17061,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17714,6 +17728,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>146</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>119.71428571428571</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -17851,8 +17872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="F426" sqref="F426"/>
+    <sheetView topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="D424" sqref="D424:E424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23372,6 +23393,17 @@
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>125</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" ref="D424" si="73">AVERAGE(C418:C424)</f>
+        <v>131.28571428571428</v>
+      </c>
+      <c r="E424">
+        <f t="shared" ref="E424" si="74">C424-C423</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -23509,8 +23541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28211,7 +28243,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -28878,6 +28910,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>7</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>8.2857142857142865</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCC187-715B-4C43-BC73-7F6751F53E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA3915-EFE8-2C42-97F1-21A25D6CC5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="D424" sqref="D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6414,6 +6414,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>98</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>91.285714285714292</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6547,7 +6554,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D424" sqref="D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11550,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12229,6 +12236,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -12362,7 +12376,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="D424" sqref="D424"/>
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17061,7 +17075,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17740,6 +17754,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>124</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>125</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -17872,8 +17893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D424" sqref="D424:E424"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="D425" sqref="D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23409,6 +23430,17 @@
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>128</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" ref="D425" si="75">AVERAGE(C419:C425)</f>
+        <v>129.42857142857142</v>
+      </c>
+      <c r="E425">
+        <f t="shared" ref="E425" si="76">C425-C424</f>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -23541,8 +23573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="D424" sqref="D424"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28243,7 +28275,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -28922,6 +28954,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>7</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA3915-EFE8-2C42-97F1-21A25D6CC5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E5384-E0BE-3F40-B6BA-37AC97E12D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6426,6 +6426,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>110</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,8 +6560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11557,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12248,6 +12255,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12376,7 +12390,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+      <selection activeCell="A426" sqref="A426:D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17075,7 +17089,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17766,6 +17780,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>142</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>128.14285714285714</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -17893,8 +17914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D425" sqref="D425"/>
+    <sheetView topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="D427" sqref="D427:E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23447,10 +23468,32 @@
       <c r="A426" s="5">
         <v>44324</v>
       </c>
+      <c r="C426">
+        <v>126</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" ref="D426" si="77">AVERAGE(C420:C426)</f>
+        <v>128.14285714285714</v>
+      </c>
+      <c r="E426">
+        <f t="shared" ref="E426" si="78">C426-C425</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>124</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" ref="D427" si="79">AVERAGE(C421:C427)</f>
+        <v>127.85714285714286</v>
+      </c>
+      <c r="E427">
+        <f t="shared" ref="E427" si="80">C427-C426</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -23574,7 +23617,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28275,7 +28318,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -28967,10 +29010,24 @@
       <c r="A426" s="5">
         <v>44324</v>
       </c>
+      <c r="C426">
+        <v>7</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>7</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E5384-E0BE-3F40-B6BA-37AC97E12D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F51BC8-F09A-BD4B-AAF7-AF15B3CEEDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6438,6 +6438,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>67</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>98.285714285714292</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6561,7 +6568,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11564,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12267,6 +12274,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12390,7 +12404,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426:D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17089,7 +17103,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17792,6 +17806,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>109</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>128.42857142857142</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -17915,7 +17936,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427:E427"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23485,15 +23506,15 @@
         <v>44325</v>
       </c>
       <c r="C427">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D427" s="3">
         <f t="shared" ref="D427" si="79">AVERAGE(C421:C427)</f>
-        <v>127.85714285714286</v>
+        <v>128.28571428571428</v>
       </c>
       <c r="E427">
         <f t="shared" ref="E427" si="80">C427-C426</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -23617,7 +23638,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29023,11 +29044,11 @@
         <v>44325</v>
       </c>
       <c r="C427">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D427" s="3">
         <f t="shared" si="5"/>
-        <v>7.7142857142857144</v>
+        <v>7.8571428571428568</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F51BC8-F09A-BD4B-AAF7-AF15B3CEEDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F2D19-F6A5-5545-B47C-C5203A8ADB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6450,6 +6450,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>110</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>96.857142857142861</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6567,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11571,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12286,6 +12293,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12404,7 +12418,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17103,7 +17117,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17818,6 +17832,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>134</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>130.14285714285714</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -17935,8 +17956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23520,6 +23541,17 @@
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>136</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" ref="D428" si="81">AVERAGE(C422:C428)</f>
+        <v>128.71428571428572</v>
+      </c>
+      <c r="E428">
+        <f t="shared" ref="E428" si="82">C428-C427</f>
+        <v>9</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -23638,7 +23670,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28339,7 +28371,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29054,6 +29086,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>8</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>7.8571428571428568</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F2D19-F6A5-5545-B47C-C5203A8ADB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170A99A-4C2F-234F-BD21-F593A9590943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6462,6 +6462,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>102</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>92.571428571428569</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6575,7 +6582,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11578,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12305,6 +12312,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -12417,8 +12431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17117,7 +17131,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17844,6 +17858,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>171</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -17956,8 +17977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23557,6 +23578,17 @@
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>134</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" ref="D429" si="83">AVERAGE(C423:C429)</f>
+        <v>128.85714285714286</v>
+      </c>
+      <c r="E429">
+        <f t="shared" ref="E429" si="84">C429-C428</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -23670,7 +23702,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A428" sqref="A428:D428"/>
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28371,7 +28403,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29098,6 +29130,13 @@
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429">
+        <v>8</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170A99A-4C2F-234F-BD21-F593A9590943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F56EF-563A-5841-9199-AE70B668F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6474,6 +6474,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>46</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>86.857142857142861</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6582,7 +6589,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11585,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12324,6 +12331,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12431,8 +12445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C429"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17131,7 +17145,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17870,6 +17884,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>91</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -17977,8 +17998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C429"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23594,6 +23615,17 @@
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>133</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" ref="D430" si="85">AVERAGE(C424:C430)</f>
+        <v>129.85714285714286</v>
+      </c>
+      <c r="E430">
+        <f t="shared" ref="E430" si="86">C430-C429</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -23701,8 +23733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28403,7 +28435,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29142,6 +29174,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>8</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5714285714285712</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F56EF-563A-5841-9199-AE70B668F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A650BC-B5FF-1944-8B94-BEC5CC6BD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6486,6 +6486,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>116</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>92.714285714285708</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6588,8 +6595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11592,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12343,6 +12350,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12446,7 +12460,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17145,7 +17159,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17896,6 +17910,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>116</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>126.71428571428571</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -17999,7 +18020,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23631,6 +23652,17 @@
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>126</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" ref="D431" si="87">AVERAGE(C425:C431)</f>
+        <v>130</v>
+      </c>
+      <c r="E431">
+        <f t="shared" ref="E431" si="88">C431-C430</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -23733,8 +23765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28435,7 +28467,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29186,6 +29218,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>8</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A650BC-B5FF-1944-8B94-BEC5CC6BD843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAD7C2-DBF6-CD48-B992-29E272304522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6498,6 +6498,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>60</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>87.285714285714292</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -6596,7 +6603,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11599,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12362,6 +12369,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -12459,8 +12473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17159,7 +17173,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17922,6 +17936,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>143</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>129.42857142857142</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -18020,7 +18041,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23668,6 +23689,17 @@
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>124</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" ref="D432" si="89">AVERAGE(C426:C432)</f>
+        <v>129.42857142857142</v>
+      </c>
+      <c r="E432">
+        <f t="shared" ref="E432" si="90">C432-C431</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -23766,7 +23798,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28467,7 +28499,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29230,6 +29262,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>9</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAD7C2-DBF6-CD48-B992-29E272304522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF6E56-0ECC-0846-B8F7-6AC0A01D8375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="11100" yWindow="1240" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6507,82 +6507,89 @@
         <v>87.285714285714292</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>34</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>76.428571428571431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -6603,7 +6610,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11606,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12378,82 +12385,89 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -12474,7 +12488,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17173,7 +17187,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17945,82 +17959,89 @@
         <v>129.42857142857142</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>94</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>122.57142857142857</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -18041,7 +18062,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23702,82 +23723,93 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>124</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" ref="D433" si="91">AVERAGE(C427:C433)</f>
+        <v>129.14285714285714</v>
+      </c>
+      <c r="E433">
+        <f t="shared" ref="E433" si="92">C433-C432</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -23798,7 +23830,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28499,7 +28531,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29271,82 +29303,89 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>8</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AF6E56-0ECC-0846-B8F7-6AC0A01D8375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2181B3C-E9EF-9348-BE73-4B675F8A930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="1240" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4300" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6522,6 +6522,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>82</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>78.571428571428569</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6610,7 +6617,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11613,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12400,6 +12407,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12487,8 +12501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17187,7 +17201,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -17974,6 +17988,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>130</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>125.57142857142857</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -18061,8 +18082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23742,6 +23763,17 @@
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>122</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" ref="D434" si="93">AVERAGE(C428:C434)</f>
+        <v>128.42857142857142</v>
+      </c>
+      <c r="E434">
+        <f t="shared" ref="E434" si="94">C434-C433</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -23830,7 +23862,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28531,7 +28563,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29318,6 +29350,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>7</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2181B3C-E9EF-9348-BE73-4B675F8A930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E789A1-904D-8645-B381-7C4559A7A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6534,6 +6534,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>54</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>70.571428571428569</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6616,8 +6623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11620,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12419,6 +12426,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12502,7 +12516,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17201,7 +17215,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18000,6 +18014,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>125</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>124.28571428571429</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -18082,8 +18103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23779,6 +23800,17 @@
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>120</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" ref="D435" si="95">AVERAGE(C429:C435)</f>
+        <v>126.14285714285714</v>
+      </c>
+      <c r="E435">
+        <f t="shared" ref="E435" si="96">C435-C434</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -23862,7 +23894,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28563,7 +28595,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29362,6 +29394,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>9</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E789A1-904D-8645-B381-7C4559A7A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E494B912-D1AE-3943-9B21-DD0B91B439CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6546,6 +6546,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>60</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>64.571428571428569</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6624,7 +6631,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11627,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12438,6 +12445,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12516,7 +12530,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17215,7 +17229,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18026,6 +18040,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>130</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>118.42857142857143</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -18104,7 +18125,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23816,6 +23837,17 @@
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>118</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" ref="D436" si="97">AVERAGE(C430:C436)</f>
+        <v>123.85714285714286</v>
+      </c>
+      <c r="E436">
+        <f t="shared" ref="E436" si="98">C436-C435</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -23894,7 +23926,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28595,7 +28627,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29406,6 +29438,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>9</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>8.2857142857142865</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E494B912-D1AE-3943-9B21-DD0B91B439CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4703CCE-D1C9-5545-B2B9-D0AC13267A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6558,6 +6558,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>38</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>63.428571428571431</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6630,8 +6637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11634,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12457,6 +12464,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12530,7 +12544,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17229,7 +17243,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18052,6 +18066,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>126</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>123.42857142857143</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -18125,7 +18146,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23853,6 +23874,17 @@
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>116</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" ref="D437" si="99">AVERAGE(C431:C437)</f>
+        <v>121.42857142857143</v>
+      </c>
+      <c r="E437">
+        <f t="shared" ref="E437" si="100">C437-C436</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -23925,8 +23957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28627,7 +28659,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29450,6 +29482,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>9</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>8.4285714285714288</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4703CCE-D1C9-5545-B2B9-D0AC13267A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF160D7E-A235-274A-B424-751BB4779BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6570,6 +6570,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>78</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6638,7 +6645,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11641,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12476,6 +12483,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12544,7 +12558,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17243,7 +17257,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18078,6 +18092,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>145</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>127.57142857142857</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -18146,7 +18167,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23890,6 +23911,17 @@
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>115</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" ref="D438" si="101">AVERAGE(C432:C438)</f>
+        <v>119.85714285714286</v>
+      </c>
+      <c r="E438">
+        <f t="shared" ref="E438" si="102">C438-C437</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -23958,7 +23990,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28659,7 +28691,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29494,6 +29526,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>9</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF160D7E-A235-274A-B424-751BB4779BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662EF4AB-E7AD-2B40-9C1A-9C745BC42469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6582,6 +6582,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>63</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>58.428571428571431</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6645,7 +6652,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11648,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12495,6 +12502,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12558,7 +12572,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17257,7 +17271,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18104,6 +18118,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>60</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>115.71428571428571</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -18167,7 +18188,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23927,6 +23948,17 @@
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>111</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" ref="D439" si="103">AVERAGE(C433:C439)</f>
+        <v>118</v>
+      </c>
+      <c r="E439">
+        <f t="shared" ref="E439" si="104">C439-C438</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -23990,7 +24022,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28691,7 +28723,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29538,6 +29570,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>9</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662EF4AB-E7AD-2B40-9C1A-9C745BC42469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479EFA59-0B8F-674A-839F-3DBA3F36E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3320" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C440" sqref="C440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6594,6 +6594,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>50</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>60.714285714285715</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6651,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11655,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12514,6 +12521,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12572,7 +12586,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17271,7 +17285,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18130,6 +18144,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>69</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>112.14285714285714</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -18188,7 +18209,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440:E440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23964,6 +23985,17 @@
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>104</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" ref="D440" si="105">AVERAGE(C434:C440)</f>
+        <v>115.14285714285714</v>
+      </c>
+      <c r="E440">
+        <f t="shared" ref="E440" si="106">C440-C439</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -24021,8 +24053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28723,7 +28755,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29582,6 +29614,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>8</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479EFA59-0B8F-674A-839F-3DBA3F36E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DBD88-565F-184D-B4D3-1BD4FC591973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C440" sqref="C440"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6606,6 +6606,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>46</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>55.571428571428569</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6658,8 +6665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11662,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12533,6 +12540,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12586,7 +12600,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17285,7 +17299,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18156,6 +18170,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>119</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>110.57142857142857</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -18209,7 +18230,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440:E440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24001,6 +24022,17 @@
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>102</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" ref="D441" si="107">AVERAGE(C435:C441)</f>
+        <v>112.28571428571429</v>
+      </c>
+      <c r="E441">
+        <f t="shared" ref="E441" si="108">C441-C440</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -24054,7 +24086,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28755,7 +28787,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29626,6 +29658,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>8</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>8.7142857142857135</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037DBD88-565F-184D-B4D3-1BD4FC591973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063903C-5FF6-8F49-945F-1CF10D45996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6618,6 +6618,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>49</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>54.857142857142854</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6665,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11669,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12552,6 +12559,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12600,7 +12614,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17299,7 +17313,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18182,6 +18196,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>116</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>109.28571428571429</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -18230,7 +18251,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24038,6 +24059,17 @@
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>101</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" ref="D442" si="109">AVERAGE(C436:C442)</f>
+        <v>109.57142857142857</v>
+      </c>
+      <c r="E442">
+        <f t="shared" ref="E442" si="110">C442-C441</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -24085,8 +24117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28787,7 +28819,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29670,6 +29702,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>9</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>8.7142857142857135</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063903C-5FF6-8F49-945F-1CF10D45996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A29EA-99E7-4549-9FCF-F7AC243FB6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6630,6 +6630,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>32</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>50.857142857142854</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6673,7 +6680,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11676,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12571,6 +12578,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12614,7 +12628,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17313,7 +17327,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18208,6 +18222,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>104</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>105.57142857142857</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -18251,7 +18272,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24075,6 +24096,17 @@
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>95</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" ref="D443" si="111">AVERAGE(C437:C443)</f>
+        <v>106.28571428571429</v>
+      </c>
+      <c r="E443">
+        <f t="shared" ref="E443" si="112">C443-C442</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -24118,7 +24150,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28819,7 +28851,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29714,6 +29746,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>7</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>8.4285714285714288</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A29EA-99E7-4549-9FCF-F7AC243FB6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016BF4B-BA3C-CF4C-A0B0-D21BE3B7C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6642,6 +6642,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>41</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>51.285714285714285</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6680,7 +6687,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11683,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12590,6 +12597,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12627,8 +12641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17327,7 +17341,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18234,6 +18248,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>47</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -18272,7 +18293,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24112,6 +24133,17 @@
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>98</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" ref="D444" si="113">AVERAGE(C438:C444)</f>
+        <v>103.71428571428571</v>
+      </c>
+      <c r="E444">
+        <f t="shared" ref="E444" si="114">C444-C443</f>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -24149,8 +24181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28851,7 +28883,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29758,6 +29790,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>7</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016BF4B-BA3C-CF4C-A0B0-D21BE3B7C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D34A5E2-DEA9-6A47-AE03-CDCBD1133D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6654,6 +6654,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>51</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>47.428571428571431</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -6687,7 +6694,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11690,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12609,6 +12616,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12641,8 +12655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17341,7 +17355,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18260,6 +18274,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>91</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>86.571428571428569</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -18293,7 +18314,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445:E445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24149,6 +24170,17 @@
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>98</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" ref="D445" si="115">AVERAGE(C439:C445)</f>
+        <v>101.28571428571429</v>
+      </c>
+      <c r="E445">
+        <f t="shared" ref="E445" si="116">C445-C444</f>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -24181,8 +24213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28883,7 +28915,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29802,6 +29834,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>6</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7142857142857144</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D34A5E2-DEA9-6A47-AE03-CDCBD1133D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B52EE-861D-6042-A17B-302C386F9D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6666,6 +6666,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>44</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>44.714285714285715</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6693,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11697,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12628,6 +12635,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12656,7 +12670,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17355,7 +17369,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18286,6 +18300,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>118</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>94.857142857142861</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -18314,7 +18335,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445:E445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24186,6 +24207,17 @@
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>89</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" ref="D446" si="117">AVERAGE(C440:C446)</f>
+        <v>98.142857142857139</v>
+      </c>
+      <c r="E446">
+        <f t="shared" ref="E446" si="118">C446-C445</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -24214,7 +24246,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28915,7 +28947,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29846,6 +29878,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>6</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B52EE-861D-6042-A17B-302C386F9D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6CD52-53BA-6D4D-8A14-ABF19E3B19EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3620" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6679,10 +6679,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>47</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>44.285714285714285</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>62</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>46.571428571428569</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -6700,8 +6714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11704,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12648,10 +12662,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -12670,7 +12698,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17369,7 +17397,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18313,10 +18341,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>72</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>95.285714285714292</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>106</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>93.428571428571431</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -18334,8 +18376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24224,10 +24266,32 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>83</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" ref="D447" si="119">AVERAGE(C441:C447)</f>
+        <v>95.142857142857139</v>
+      </c>
+      <c r="E447">
+        <f t="shared" ref="E447" si="120">C447-C446</f>
+        <v>-6</v>
+      </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>78</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" ref="D448" si="121">AVERAGE(C442:C448)</f>
+        <v>91.714285714285708</v>
+      </c>
+      <c r="E448">
+        <f t="shared" ref="E448" si="122">C448-C447</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -24246,7 +24310,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28947,7 +29011,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29891,10 +29955,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>6</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>6</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7142857142857144</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6CD52-53BA-6D4D-8A14-ABF19E3B19EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8999BE-3110-E341-B36F-EF7F3D5E3B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6699,9 +6699,16 @@
         <v>46.571428571428569</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>50</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>46.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -6715,7 +6722,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11718,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12682,9 +12689,16 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
@@ -12698,7 +12712,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17397,7 +17411,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18361,9 +18375,16 @@
         <v>93.428571428571431</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>100</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>91.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -18377,7 +18398,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24294,9 +24315,20 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>77</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" ref="D449" si="123">AVERAGE(C443:C449)</f>
+        <v>88.285714285714292</v>
+      </c>
+      <c r="E449">
+        <f t="shared" ref="E449" si="124">C449-C448</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -24310,7 +24342,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29011,7 +29043,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -29975,9 +30007,16 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>7</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>6.4285714285714288</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8999BE-3110-E341-B36F-EF7F3D5E3B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5375A24-93D8-5C4A-BB37-E31762A66795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9180" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6709,6 +6709,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>46.714285714285715</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>12</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>43.857142857142854</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -6719,10 +6876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11725,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12699,6 +12856,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -12709,10 +13023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17411,7 +17725,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18385,6 +18699,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>91.142857142857139</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>135</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>95.571428571428569</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -18395,10 +18866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24331,6 +24802,167 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>77</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" ref="D450" si="125">AVERAGE(C444:C450)</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="E450">
+        <f t="shared" ref="E450" si="126">C450-C449</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24339,10 +24971,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29043,7 +29675,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30017,6 +30649,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>5</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5375A24-93D8-5C4A-BB37-E31762A66795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB816229-D9B9-164A-8BAA-9CEE09CA6D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6726,6 +6726,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>41</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>43.857142857142854</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6879,7 +6886,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11882,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12873,6 +12880,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -13025,8 +13039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17725,7 +17739,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18716,6 +18730,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>24</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>92.285714285714292</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -18869,7 +18890,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24821,6 +24842,17 @@
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>75</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" ref="D451" si="127">AVERAGE(C445:C451)</f>
+        <v>82.428571428571431</v>
+      </c>
+      <c r="E451">
+        <f t="shared" ref="E451" si="128">C451-C450</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -24973,8 +25005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:A479"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29675,7 +29707,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30666,6 +30698,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>5</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB816229-D9B9-164A-8BAA-9CEE09CA6D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624897AC-7424-5E4C-9BF2-05C91C81723E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6738,6 +6738,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>48</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>43.428571428571431</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -6886,7 +6893,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11889,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12892,6 +12899,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -13040,7 +13054,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17739,7 +17753,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18742,6 +18756,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>58</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>87.571428571428569</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -18889,8 +18910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452:E452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24858,6 +24879,17 @@
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>73</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" ref="D452" si="129">AVERAGE(C446:C452)</f>
+        <v>78.857142857142861</v>
+      </c>
+      <c r="E452">
+        <f t="shared" ref="E452" si="130">C452-C451</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -25005,8 +25037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29707,7 +29739,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30710,6 +30742,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>6</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624897AC-7424-5E4C-9BF2-05C91C81723E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A8C703-989A-3342-9D63-1C2D92EDD2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6750,6 +6750,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>48</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>44</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6893,7 +6900,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11896,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12911,6 +12918,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -13054,7 +13068,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17753,7 +17767,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18768,6 +18782,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>42</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>76.714285714285708</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -18910,8 +18931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452:E452"/>
+    <sheetView topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24895,6 +24916,17 @@
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>70</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" ref="D453" si="131">AVERAGE(C447:C453)</f>
+        <v>76.142857142857139</v>
+      </c>
+      <c r="E453">
+        <f t="shared" ref="E453" si="132">C453-C452</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -25037,8 +25069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29739,7 +29771,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30754,6 +30786,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>6</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A8C703-989A-3342-9D63-1C2D92EDD2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344992E7-456F-BB44-955C-BB1746765CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6762,6 +6762,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>19</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6900,7 +6907,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11903,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12930,6 +12937,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -13067,8 +13081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17767,7 +17781,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18794,6 +18808,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>83</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>78.285714285714292</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -18932,7 +18953,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24932,6 +24953,17 @@
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>68</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" ref="D454" si="133">AVERAGE(C448:C454)</f>
+        <v>74</v>
+      </c>
+      <c r="E454">
+        <f t="shared" ref="E454" si="134">C454-C453</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -25070,7 +25102,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29771,7 +29803,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30798,6 +30830,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>6</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344992E7-456F-BB44-955C-BB1746765CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B70C28-F956-CC41-8A7D-3B53038EBE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7600" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6775,10 +6775,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>38</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>36.571428571428569</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>21</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>32.428571428571431</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6907,7 +6921,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11910,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12950,10 +12964,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -13082,7 +13110,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17781,7 +17809,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18821,10 +18849,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>57</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>71.285714285714292</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>58</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>65.285714285714292</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -18953,7 +18995,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24970,10 +25012,32 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>61</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" ref="D455" si="135">AVERAGE(C449:C455)</f>
+        <v>71.571428571428569</v>
+      </c>
+      <c r="E455">
+        <f t="shared" ref="E455" si="136">C455-C454</f>
+        <v>-7</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>62</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" ref="D456" si="137">AVERAGE(C450:C456)</f>
+        <v>69.428571428571431</v>
+      </c>
+      <c r="E456">
+        <f t="shared" ref="E456" si="138">C456-C455</f>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -25102,7 +25166,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="C455" sqref="C455:C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29803,7 +29867,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30843,10 +30907,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>7</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>7</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B70C28-F956-CC41-8A7D-3B53038EBE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6776A5-0027-9348-B9F3-786E21D35B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6798,6 +6798,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>27</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>34.571428571428569</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6921,7 +6928,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11924,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12987,6 +12994,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -13110,7 +13124,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17809,7 +17823,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18872,6 +18886,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>40</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>51.714285714285715</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -18995,7 +19016,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25043,6 +25064,17 @@
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>57</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" ref="D457" si="139">AVERAGE(C451:C457)</f>
+        <v>66.571428571428569</v>
+      </c>
+      <c r="E457">
+        <f t="shared" ref="E457" si="140">C457-C456</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -25166,7 +25198,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C455" sqref="C455:C456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29867,7 +29899,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30930,6 +30962,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>6</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6776A5-0027-9348-B9F3-786E21D35B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E95F0-330A-784D-A123-F69304486444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6810,6 +6810,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>27</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>32.571428571428569</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6928,7 +6935,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11931,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -13006,6 +13013,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -13123,8 +13137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17823,7 +17837,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18898,6 +18912,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>74</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>58.857142857142854</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -19016,7 +19037,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25080,6 +25101,17 @@
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>55</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" ref="D458" si="141">AVERAGE(C452:C458)</f>
+        <v>63.714285714285715</v>
+      </c>
+      <c r="E458">
+        <f t="shared" ref="E458" si="142">C458-C457</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -25198,7 +25230,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29899,7 +29931,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30974,6 +31006,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>5</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E95F0-330A-784D-A123-F69304486444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887FD82-F058-1F4C-B9B3-1980B92F8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6822,6 +6822,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>28</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>29.714285714285715</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -6935,7 +6942,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11938,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -13025,6 +13032,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -13138,7 +13152,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17837,7 +17851,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18924,6 +18938,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>64</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>59.714285714285715</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -19034,10 +19055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23934,7 +23955,7 @@
         <v>87.571428571428569</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>44283</v>
       </c>
@@ -23946,7 +23967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>44284</v>
       </c>
@@ -23957,12 +23978,8 @@
         <f t="shared" si="5"/>
         <v>87.428571428571431</v>
       </c>
-      <c r="E386">
-        <f>C386-C385</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>44285</v>
       </c>
@@ -23973,12 +23990,8 @@
         <f t="shared" si="5"/>
         <v>88.571428571428569</v>
       </c>
-      <c r="E387">
-        <f>C387-C386</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>44286</v>
       </c>
@@ -23989,12 +24002,8 @@
         <f t="shared" ref="D388" si="6">AVERAGE(C382:C388)</f>
         <v>89.571428571428569</v>
       </c>
-      <c r="E388">
-        <f>C388-C387</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>44287</v>
       </c>
@@ -24005,12 +24014,8 @@
         <f t="shared" ref="D389:D391" si="7">AVERAGE(C383:C389)</f>
         <v>90.714285714285708</v>
       </c>
-      <c r="E389">
-        <f t="shared" ref="E389:E391" si="8">C389-C388</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>44288</v>
       </c>
@@ -24021,12 +24026,8 @@
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="E390">
-        <f t="shared" si="8"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>44289</v>
       </c>
@@ -24037,12 +24038,8 @@
         <f t="shared" si="7"/>
         <v>94.857142857142861</v>
       </c>
-      <c r="E391">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>44290</v>
       </c>
@@ -24050,15 +24047,11 @@
         <v>102</v>
       </c>
       <c r="D392" s="3">
-        <f t="shared" ref="D392" si="9">AVERAGE(C386:C392)</f>
+        <f t="shared" ref="D392" si="8">AVERAGE(C386:C392)</f>
         <v>97</v>
       </c>
-      <c r="E392">
-        <f t="shared" ref="E392" si="10">C392-C391</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>44291</v>
       </c>
@@ -24066,15 +24059,11 @@
         <v>105</v>
       </c>
       <c r="D393" s="3">
-        <f t="shared" ref="D393" si="11">AVERAGE(C387:C393)</f>
+        <f t="shared" ref="D393" si="9">AVERAGE(C387:C393)</f>
         <v>98.714285714285708</v>
       </c>
-      <c r="E393">
-        <f t="shared" ref="E393" si="12">C393-C392</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>44292</v>
       </c>
@@ -24082,15 +24071,11 @@
         <v>112</v>
       </c>
       <c r="D394" s="3">
-        <f t="shared" ref="D394" si="13">AVERAGE(C388:C394)</f>
+        <f t="shared" ref="D394" si="10">AVERAGE(C388:C394)</f>
         <v>101.28571428571429</v>
       </c>
-      <c r="E394">
-        <f t="shared" ref="E394" si="14">C394-C393</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>44293</v>
       </c>
@@ -24098,15 +24083,11 @@
         <v>107</v>
       </c>
       <c r="D395" s="3">
-        <f t="shared" ref="D395" si="15">AVERAGE(C389:C395)</f>
+        <f t="shared" ref="D395" si="11">AVERAGE(C389:C395)</f>
         <v>103.42857142857143</v>
       </c>
-      <c r="E395">
-        <f t="shared" ref="E395" si="16">C395-C394</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>44294</v>
       </c>
@@ -24114,15 +24095,11 @@
         <v>109</v>
       </c>
       <c r="D396" s="3">
-        <f t="shared" ref="D396" si="17">AVERAGE(C390:C396)</f>
+        <f t="shared" ref="D396" si="12">AVERAGE(C390:C396)</f>
         <v>105</v>
       </c>
-      <c r="E396">
-        <f t="shared" ref="E396" si="18">C396-C395</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>44295</v>
       </c>
@@ -24130,15 +24107,11 @@
         <v>120</v>
       </c>
       <c r="D397" s="3">
-        <f t="shared" ref="D397" si="19">AVERAGE(C391:C397)</f>
+        <f t="shared" ref="D397" si="13">AVERAGE(C391:C397)</f>
         <v>108.57142857142857</v>
       </c>
-      <c r="E397">
-        <f t="shared" ref="E397" si="20">C397-C396</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>44296</v>
       </c>
@@ -24146,15 +24119,11 @@
         <v>121</v>
       </c>
       <c r="D398" s="3">
-        <f t="shared" ref="D398" si="21">AVERAGE(C392:C398)</f>
+        <f t="shared" ref="D398" si="14">AVERAGE(C392:C398)</f>
         <v>110.85714285714286</v>
       </c>
-      <c r="E398">
-        <f t="shared" ref="E398" si="22">C398-C397</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>44297</v>
       </c>
@@ -24162,15 +24131,11 @@
         <v>121</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399" si="23">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399" si="15">AVERAGE(C393:C399)</f>
         <v>113.57142857142857</v>
       </c>
-      <c r="E399">
-        <f t="shared" ref="E399" si="24">C399-C398</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>44298</v>
       </c>
@@ -24178,15 +24143,11 @@
         <v>129</v>
       </c>
       <c r="D400" s="3">
-        <f t="shared" ref="D400" si="25">AVERAGE(C394:C400)</f>
+        <f t="shared" ref="D400" si="16">AVERAGE(C394:C400)</f>
         <v>117</v>
       </c>
-      <c r="E400">
-        <f t="shared" ref="E400" si="26">C400-C399</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
@@ -24194,15 +24155,11 @@
         <v>129</v>
       </c>
       <c r="D401" s="3">
-        <f t="shared" ref="D401" si="27">AVERAGE(C395:C401)</f>
+        <f t="shared" ref="D401" si="17">AVERAGE(C395:C401)</f>
         <v>119.42857142857143</v>
       </c>
-      <c r="E401">
-        <f t="shared" ref="E401" si="28">C401-C400</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
@@ -24210,15 +24167,11 @@
         <v>135</v>
       </c>
       <c r="D402" s="3">
-        <f t="shared" ref="D402" si="29">AVERAGE(C396:C402)</f>
+        <f t="shared" ref="D402" si="18">AVERAGE(C396:C402)</f>
         <v>123.42857142857143</v>
       </c>
-      <c r="E402">
-        <f t="shared" ref="E402" si="30">C402-C401</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
@@ -24226,15 +24179,11 @@
         <v>128</v>
       </c>
       <c r="D403" s="3">
-        <f t="shared" ref="D403" si="31">AVERAGE(C397:C403)</f>
+        <f t="shared" ref="D403" si="19">AVERAGE(C397:C403)</f>
         <v>126.14285714285714</v>
       </c>
-      <c r="E403">
-        <f t="shared" ref="E403" si="32">C403-C402</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
@@ -24242,15 +24191,11 @@
         <v>131</v>
       </c>
       <c r="D404" s="3">
-        <f t="shared" ref="D404" si="33">AVERAGE(C398:C404)</f>
+        <f t="shared" ref="D404" si="20">AVERAGE(C398:C404)</f>
         <v>127.71428571428571</v>
       </c>
-      <c r="E404">
-        <f t="shared" ref="E404" si="34">C404-C403</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
@@ -24258,15 +24203,11 @@
         <v>133</v>
       </c>
       <c r="D405" s="3">
-        <f t="shared" ref="D405" si="35">AVERAGE(C399:C405)</f>
+        <f t="shared" ref="D405" si="21">AVERAGE(C399:C405)</f>
         <v>129.42857142857142</v>
       </c>
-      <c r="E405">
-        <f t="shared" ref="E405" si="36">C405-C404</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
@@ -24274,15 +24215,11 @@
         <v>132</v>
       </c>
       <c r="D406" s="3">
-        <f t="shared" ref="D406" si="37">AVERAGE(C400:C406)</f>
+        <f t="shared" ref="D406" si="22">AVERAGE(C400:C406)</f>
         <v>131</v>
       </c>
-      <c r="E406">
-        <f t="shared" ref="E406" si="38">C406-C405</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
@@ -24290,15 +24227,11 @@
         <v>136</v>
       </c>
       <c r="D407" s="3">
-        <f t="shared" ref="D407" si="39">AVERAGE(C401:C407)</f>
+        <f t="shared" ref="D407" si="23">AVERAGE(C401:C407)</f>
         <v>132</v>
       </c>
-      <c r="E407">
-        <f t="shared" ref="E407" si="40">C407-C406</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
@@ -24306,15 +24239,11 @@
         <v>131</v>
       </c>
       <c r="D408" s="3">
-        <f t="shared" ref="D408" si="41">AVERAGE(C402:C408)</f>
+        <f t="shared" ref="D408" si="24">AVERAGE(C402:C408)</f>
         <v>132.28571428571428</v>
       </c>
-      <c r="E408">
-        <f t="shared" ref="E408" si="42">C408-C407</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
@@ -24322,15 +24251,11 @@
         <v>131</v>
       </c>
       <c r="D409" s="3">
-        <f t="shared" ref="D409" si="43">AVERAGE(C403:C409)</f>
+        <f t="shared" ref="D409" si="25">AVERAGE(C403:C409)</f>
         <v>131.71428571428572</v>
       </c>
-      <c r="E409">
-        <f t="shared" ref="E409" si="44">C409-C408</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
@@ -24338,15 +24263,11 @@
         <v>131</v>
       </c>
       <c r="D410" s="3">
-        <f t="shared" ref="D410" si="45">AVERAGE(C404:C410)</f>
+        <f t="shared" ref="D410" si="26">AVERAGE(C404:C410)</f>
         <v>132.14285714285714</v>
       </c>
-      <c r="E410">
-        <f t="shared" ref="E410" si="46">C410-C409</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
@@ -24354,15 +24275,11 @@
         <v>132</v>
       </c>
       <c r="D411" s="3">
-        <f t="shared" ref="D411" si="47">AVERAGE(C405:C411)</f>
+        <f t="shared" ref="D411" si="27">AVERAGE(C405:C411)</f>
         <v>132.28571428571428</v>
       </c>
-      <c r="E411">
-        <f t="shared" ref="E411" si="48">C411-C410</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
@@ -24370,15 +24287,11 @@
         <v>135</v>
       </c>
       <c r="D412" s="3">
-        <f t="shared" ref="D412" si="49">AVERAGE(C406:C412)</f>
+        <f t="shared" ref="D412" si="28">AVERAGE(C406:C412)</f>
         <v>132.57142857142858</v>
       </c>
-      <c r="E412">
-        <f t="shared" ref="E412" si="50">C412-C411</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
@@ -24386,15 +24299,11 @@
         <v>135</v>
       </c>
       <c r="D413" s="3">
-        <f t="shared" ref="D413" si="51">AVERAGE(C407:C413)</f>
+        <f t="shared" ref="D413" si="29">AVERAGE(C407:C413)</f>
         <v>133</v>
       </c>
-      <c r="E413">
-        <f t="shared" ref="E413" si="52">C413-C412</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
@@ -24402,15 +24311,11 @@
         <v>141</v>
       </c>
       <c r="D414" s="3">
-        <f t="shared" ref="D414" si="53">AVERAGE(C408:C414)</f>
+        <f t="shared" ref="D414" si="30">AVERAGE(C408:C414)</f>
         <v>133.71428571428572</v>
       </c>
-      <c r="E414">
-        <f t="shared" ref="E414" si="54">C414-C413</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
@@ -24418,15 +24323,11 @@
         <v>133</v>
       </c>
       <c r="D415" s="3">
-        <f t="shared" ref="D415" si="55">AVERAGE(C409:C415)</f>
+        <f t="shared" ref="D415" si="31">AVERAGE(C409:C415)</f>
         <v>134</v>
       </c>
-      <c r="E415">
-        <f t="shared" ref="E415" si="56">C415-C414</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -24434,15 +24335,11 @@
         <v>135</v>
       </c>
       <c r="D416" s="3">
-        <f t="shared" ref="D416" si="57">AVERAGE(C410:C416)</f>
+        <f t="shared" ref="D416" si="32">AVERAGE(C410:C416)</f>
         <v>134.57142857142858</v>
       </c>
-      <c r="E416">
-        <f t="shared" ref="E416" si="58">C416-C415</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
@@ -24450,15 +24347,11 @@
         <v>142</v>
       </c>
       <c r="D417" s="3">
-        <f t="shared" ref="D417" si="59">AVERAGE(C411:C417)</f>
+        <f t="shared" ref="D417" si="33">AVERAGE(C411:C417)</f>
         <v>136.14285714285714</v>
       </c>
-      <c r="E417">
-        <f t="shared" ref="E417" si="60">C417-C416</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -24466,15 +24359,11 @@
         <v>141</v>
       </c>
       <c r="D418" s="3">
-        <f t="shared" ref="D418" si="61">AVERAGE(C412:C418)</f>
+        <f t="shared" ref="D418" si="34">AVERAGE(C412:C418)</f>
         <v>137.42857142857142</v>
       </c>
-      <c r="E418">
-        <f t="shared" ref="E418" si="62">C418-C417</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>44317</v>
       </c>
@@ -24482,15 +24371,11 @@
         <v>135</v>
       </c>
       <c r="D419" s="3">
-        <f t="shared" ref="D419" si="63">AVERAGE(C413:C419)</f>
+        <f t="shared" ref="D419" si="35">AVERAGE(C413:C419)</f>
         <v>137.42857142857142</v>
       </c>
-      <c r="E419">
-        <f t="shared" ref="E419" si="64">C419-C418</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>44318</v>
       </c>
@@ -24498,15 +24383,11 @@
         <v>126</v>
       </c>
       <c r="D420" s="3">
-        <f t="shared" ref="D420" si="65">AVERAGE(C414:C420)</f>
+        <f t="shared" ref="D420" si="36">AVERAGE(C414:C420)</f>
         <v>136.14285714285714</v>
       </c>
-      <c r="E420">
-        <f t="shared" ref="E420" si="66">C420-C419</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>44319</v>
       </c>
@@ -24514,15 +24395,11 @@
         <v>133</v>
       </c>
       <c r="D421" s="3">
-        <f t="shared" ref="D421" si="67">AVERAGE(C415:C421)</f>
+        <f t="shared" ref="D421" si="37">AVERAGE(C415:C421)</f>
         <v>135</v>
       </c>
-      <c r="E421">
-        <f t="shared" ref="E421" si="68">C421-C420</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
       </c>
@@ -24530,15 +24407,11 @@
         <v>133</v>
       </c>
       <c r="D422" s="3">
-        <f t="shared" ref="D422" si="69">AVERAGE(C416:C422)</f>
+        <f t="shared" ref="D422" si="38">AVERAGE(C416:C422)</f>
         <v>135</v>
       </c>
-      <c r="E422">
-        <f t="shared" ref="E422" si="70">C422-C421</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
       </c>
@@ -24546,15 +24419,11 @@
         <v>126</v>
       </c>
       <c r="D423" s="3">
-        <f t="shared" ref="D423" si="71">AVERAGE(C417:C423)</f>
+        <f t="shared" ref="D423" si="39">AVERAGE(C417:C423)</f>
         <v>133.71428571428572</v>
       </c>
-      <c r="E423">
-        <f t="shared" ref="E423" si="72">C423-C422</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
       </c>
@@ -24562,15 +24431,11 @@
         <v>125</v>
       </c>
       <c r="D424" s="3">
-        <f t="shared" ref="D424" si="73">AVERAGE(C418:C424)</f>
+        <f t="shared" ref="D424" si="40">AVERAGE(C418:C424)</f>
         <v>131.28571428571428</v>
       </c>
-      <c r="E424">
-        <f t="shared" ref="E424" si="74">C424-C423</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
       </c>
@@ -24578,15 +24443,11 @@
         <v>128</v>
       </c>
       <c r="D425" s="3">
-        <f t="shared" ref="D425" si="75">AVERAGE(C419:C425)</f>
+        <f t="shared" ref="D425" si="41">AVERAGE(C419:C425)</f>
         <v>129.42857142857142</v>
       </c>
-      <c r="E425">
-        <f t="shared" ref="E425" si="76">C425-C424</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
       </c>
@@ -24594,15 +24455,11 @@
         <v>126</v>
       </c>
       <c r="D426" s="3">
-        <f t="shared" ref="D426" si="77">AVERAGE(C420:C426)</f>
+        <f t="shared" ref="D426" si="42">AVERAGE(C420:C426)</f>
         <v>128.14285714285714</v>
       </c>
-      <c r="E426">
-        <f t="shared" ref="E426" si="78">C426-C425</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
       </c>
@@ -24610,15 +24467,11 @@
         <v>127</v>
       </c>
       <c r="D427" s="3">
-        <f t="shared" ref="D427" si="79">AVERAGE(C421:C427)</f>
+        <f t="shared" ref="D427" si="43">AVERAGE(C421:C427)</f>
         <v>128.28571428571428</v>
       </c>
-      <c r="E427">
-        <f t="shared" ref="E427" si="80">C427-C426</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
       </c>
@@ -24626,15 +24479,11 @@
         <v>136</v>
       </c>
       <c r="D428" s="3">
-        <f t="shared" ref="D428" si="81">AVERAGE(C422:C428)</f>
+        <f t="shared" ref="D428" si="44">AVERAGE(C422:C428)</f>
         <v>128.71428571428572</v>
       </c>
-      <c r="E428">
-        <f t="shared" ref="E428" si="82">C428-C427</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
       </c>
@@ -24642,15 +24491,11 @@
         <v>134</v>
       </c>
       <c r="D429" s="3">
-        <f t="shared" ref="D429" si="83">AVERAGE(C423:C429)</f>
+        <f t="shared" ref="D429" si="45">AVERAGE(C423:C429)</f>
         <v>128.85714285714286</v>
       </c>
-      <c r="E429">
-        <f t="shared" ref="E429" si="84">C429-C428</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
       </c>
@@ -24658,15 +24503,11 @@
         <v>133</v>
       </c>
       <c r="D430" s="3">
-        <f t="shared" ref="D430" si="85">AVERAGE(C424:C430)</f>
+        <f t="shared" ref="D430" si="46">AVERAGE(C424:C430)</f>
         <v>129.85714285714286</v>
       </c>
-      <c r="E430">
-        <f t="shared" ref="E430" si="86">C430-C429</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
       </c>
@@ -24674,15 +24515,11 @@
         <v>126</v>
       </c>
       <c r="D431" s="3">
-        <f t="shared" ref="D431" si="87">AVERAGE(C425:C431)</f>
+        <f t="shared" ref="D431" si="47">AVERAGE(C425:C431)</f>
         <v>130</v>
       </c>
-      <c r="E431">
-        <f t="shared" ref="E431" si="88">C431-C430</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
       </c>
@@ -24690,15 +24527,11 @@
         <v>124</v>
       </c>
       <c r="D432" s="3">
-        <f t="shared" ref="D432" si="89">AVERAGE(C426:C432)</f>
+        <f t="shared" ref="D432" si="48">AVERAGE(C426:C432)</f>
         <v>129.42857142857142</v>
       </c>
-      <c r="E432">
-        <f t="shared" ref="E432" si="90">C432-C431</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
@@ -24706,15 +24539,11 @@
         <v>124</v>
       </c>
       <c r="D433" s="3">
-        <f t="shared" ref="D433" si="91">AVERAGE(C427:C433)</f>
+        <f t="shared" ref="D433" si="49">AVERAGE(C427:C433)</f>
         <v>129.14285714285714</v>
       </c>
-      <c r="E433">
-        <f t="shared" ref="E433" si="92">C433-C432</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
@@ -24722,15 +24551,11 @@
         <v>122</v>
       </c>
       <c r="D434" s="3">
-        <f t="shared" ref="D434" si="93">AVERAGE(C428:C434)</f>
+        <f t="shared" ref="D434" si="50">AVERAGE(C428:C434)</f>
         <v>128.42857142857142</v>
       </c>
-      <c r="E434">
-        <f t="shared" ref="E434" si="94">C434-C433</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
@@ -24738,15 +24563,11 @@
         <v>120</v>
       </c>
       <c r="D435" s="3">
-        <f t="shared" ref="D435" si="95">AVERAGE(C429:C435)</f>
+        <f t="shared" ref="D435" si="51">AVERAGE(C429:C435)</f>
         <v>126.14285714285714</v>
       </c>
-      <c r="E435">
-        <f t="shared" ref="E435" si="96">C435-C434</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
@@ -24754,15 +24575,11 @@
         <v>118</v>
       </c>
       <c r="D436" s="3">
-        <f t="shared" ref="D436" si="97">AVERAGE(C430:C436)</f>
+        <f t="shared" ref="D436" si="52">AVERAGE(C430:C436)</f>
         <v>123.85714285714286</v>
       </c>
-      <c r="E436">
-        <f t="shared" ref="E436" si="98">C436-C435</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
@@ -24770,15 +24587,11 @@
         <v>116</v>
       </c>
       <c r="D437" s="3">
-        <f t="shared" ref="D437" si="99">AVERAGE(C431:C437)</f>
+        <f t="shared" ref="D437" si="53">AVERAGE(C431:C437)</f>
         <v>121.42857142857143</v>
       </c>
-      <c r="E437">
-        <f t="shared" ref="E437" si="100">C437-C436</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
@@ -24786,15 +24599,11 @@
         <v>115</v>
       </c>
       <c r="D438" s="3">
-        <f t="shared" ref="D438" si="101">AVERAGE(C432:C438)</f>
+        <f t="shared" ref="D438" si="54">AVERAGE(C432:C438)</f>
         <v>119.85714285714286</v>
       </c>
-      <c r="E438">
-        <f t="shared" ref="E438" si="102">C438-C437</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
@@ -24802,15 +24611,11 @@
         <v>111</v>
       </c>
       <c r="D439" s="3">
-        <f t="shared" ref="D439" si="103">AVERAGE(C433:C439)</f>
+        <f t="shared" ref="D439" si="55">AVERAGE(C433:C439)</f>
         <v>118</v>
       </c>
-      <c r="E439">
-        <f t="shared" ref="E439" si="104">C439-C438</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
@@ -24818,15 +24623,11 @@
         <v>104</v>
       </c>
       <c r="D440" s="3">
-        <f t="shared" ref="D440" si="105">AVERAGE(C434:C440)</f>
+        <f t="shared" ref="D440" si="56">AVERAGE(C434:C440)</f>
         <v>115.14285714285714</v>
       </c>
-      <c r="E440">
-        <f t="shared" ref="E440" si="106">C440-C439</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
@@ -24834,15 +24635,11 @@
         <v>102</v>
       </c>
       <c r="D441" s="3">
-        <f t="shared" ref="D441" si="107">AVERAGE(C435:C441)</f>
+        <f t="shared" ref="D441" si="57">AVERAGE(C435:C441)</f>
         <v>112.28571428571429</v>
       </c>
-      <c r="E441">
-        <f t="shared" ref="E441" si="108">C441-C440</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
@@ -24850,15 +24647,11 @@
         <v>101</v>
       </c>
       <c r="D442" s="3">
-        <f t="shared" ref="D442" si="109">AVERAGE(C436:C442)</f>
+        <f t="shared" ref="D442" si="58">AVERAGE(C436:C442)</f>
         <v>109.57142857142857</v>
       </c>
-      <c r="E442">
-        <f t="shared" ref="E442" si="110">C442-C441</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
@@ -24866,15 +24659,11 @@
         <v>95</v>
       </c>
       <c r="D443" s="3">
-        <f t="shared" ref="D443" si="111">AVERAGE(C437:C443)</f>
+        <f t="shared" ref="D443" si="59">AVERAGE(C437:C443)</f>
         <v>106.28571428571429</v>
       </c>
-      <c r="E443">
-        <f t="shared" ref="E443" si="112">C443-C442</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
@@ -24882,15 +24671,11 @@
         <v>98</v>
       </c>
       <c r="D444" s="3">
-        <f t="shared" ref="D444" si="113">AVERAGE(C438:C444)</f>
+        <f t="shared" ref="D444" si="60">AVERAGE(C438:C444)</f>
         <v>103.71428571428571</v>
       </c>
-      <c r="E444">
-        <f t="shared" ref="E444" si="114">C444-C443</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
@@ -24898,15 +24683,11 @@
         <v>98</v>
       </c>
       <c r="D445" s="3">
-        <f t="shared" ref="D445" si="115">AVERAGE(C439:C445)</f>
+        <f t="shared" ref="D445" si="61">AVERAGE(C439:C445)</f>
         <v>101.28571428571429</v>
       </c>
-      <c r="E445">
-        <f t="shared" ref="E445" si="116">C445-C444</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
@@ -24914,15 +24695,11 @@
         <v>89</v>
       </c>
       <c r="D446" s="3">
-        <f t="shared" ref="D446" si="117">AVERAGE(C440:C446)</f>
+        <f t="shared" ref="D446" si="62">AVERAGE(C440:C446)</f>
         <v>98.142857142857139</v>
       </c>
-      <c r="E446">
-        <f t="shared" ref="E446" si="118">C446-C445</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
@@ -24930,15 +24707,11 @@
         <v>83</v>
       </c>
       <c r="D447" s="3">
-        <f t="shared" ref="D447" si="119">AVERAGE(C441:C447)</f>
+        <f t="shared" ref="D447" si="63">AVERAGE(C441:C447)</f>
         <v>95.142857142857139</v>
       </c>
-      <c r="E447">
-        <f t="shared" ref="E447" si="120">C447-C446</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -24946,15 +24719,11 @@
         <v>78</v>
       </c>
       <c r="D448" s="3">
-        <f t="shared" ref="D448" si="121">AVERAGE(C442:C448)</f>
+        <f t="shared" ref="D448" si="64">AVERAGE(C442:C448)</f>
         <v>91.714285714285708</v>
       </c>
-      <c r="E448">
-        <f t="shared" ref="E448" si="122">C448-C447</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
       </c>
@@ -24962,15 +24731,11 @@
         <v>77</v>
       </c>
       <c r="D449" s="3">
-        <f t="shared" ref="D449" si="123">AVERAGE(C443:C449)</f>
+        <f t="shared" ref="D449" si="65">AVERAGE(C443:C449)</f>
         <v>88.285714285714292</v>
       </c>
-      <c r="E449">
-        <f t="shared" ref="E449" si="124">C449-C448</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>44348</v>
       </c>
@@ -24978,15 +24743,11 @@
         <v>77</v>
       </c>
       <c r="D450" s="3">
-        <f t="shared" ref="D450" si="125">AVERAGE(C444:C450)</f>
+        <f t="shared" ref="D450" si="66">AVERAGE(C444:C450)</f>
         <v>85.714285714285708</v>
       </c>
-      <c r="E450">
-        <f t="shared" ref="E450" si="126">C450-C449</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
       </c>
@@ -24994,15 +24755,11 @@
         <v>75</v>
       </c>
       <c r="D451" s="3">
-        <f t="shared" ref="D451" si="127">AVERAGE(C445:C451)</f>
+        <f t="shared" ref="D451" si="67">AVERAGE(C445:C451)</f>
         <v>82.428571428571431</v>
       </c>
-      <c r="E451">
-        <f t="shared" ref="E451" si="128">C451-C450</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
       </c>
@@ -25010,15 +24767,11 @@
         <v>73</v>
       </c>
       <c r="D452" s="3">
-        <f t="shared" ref="D452" si="129">AVERAGE(C446:C452)</f>
+        <f t="shared" ref="D452" si="68">AVERAGE(C446:C452)</f>
         <v>78.857142857142861</v>
       </c>
-      <c r="E452">
-        <f t="shared" ref="E452" si="130">C452-C451</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
       </c>
@@ -25026,15 +24779,11 @@
         <v>70</v>
       </c>
       <c r="D453" s="3">
-        <f t="shared" ref="D453" si="131">AVERAGE(C447:C453)</f>
+        <f t="shared" ref="D453" si="69">AVERAGE(C447:C453)</f>
         <v>76.142857142857139</v>
       </c>
-      <c r="E453">
-        <f t="shared" ref="E453" si="132">C453-C452</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
       </c>
@@ -25042,15 +24791,11 @@
         <v>68</v>
       </c>
       <c r="D454" s="3">
-        <f t="shared" ref="D454" si="133">AVERAGE(C448:C454)</f>
+        <f t="shared" ref="D454" si="70">AVERAGE(C448:C454)</f>
         <v>74</v>
       </c>
-      <c r="E454">
-        <f t="shared" ref="E454" si="134">C454-C453</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>44353</v>
       </c>
@@ -25058,15 +24803,11 @@
         <v>61</v>
       </c>
       <c r="D455" s="3">
-        <f t="shared" ref="D455" si="135">AVERAGE(C449:C455)</f>
+        <f t="shared" ref="D455" si="71">AVERAGE(C449:C455)</f>
         <v>71.571428571428569</v>
       </c>
-      <c r="E455">
-        <f t="shared" ref="E455" si="136">C455-C454</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
       </c>
@@ -25074,15 +24815,11 @@
         <v>62</v>
       </c>
       <c r="D456" s="3">
-        <f t="shared" ref="D456" si="137">AVERAGE(C450:C456)</f>
+        <f t="shared" ref="D456" si="72">AVERAGE(C450:C456)</f>
         <v>69.428571428571431</v>
       </c>
-      <c r="E456">
-        <f t="shared" ref="E456" si="138">C456-C455</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
       </c>
@@ -25090,15 +24827,11 @@
         <v>57</v>
       </c>
       <c r="D457" s="3">
-        <f t="shared" ref="D457" si="139">AVERAGE(C451:C457)</f>
+        <f t="shared" ref="D457" si="73">AVERAGE(C451:C457)</f>
         <v>66.571428571428569</v>
       </c>
-      <c r="E457">
-        <f t="shared" ref="E457" si="140">C457-C456</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
       </c>
@@ -25106,40 +24839,43 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458" si="141">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D459" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
-      <c r="E458">
-        <f t="shared" ref="E458" si="142">C458-C457</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C459">
+        <v>56</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="74"/>
+        <v>61.285714285714285</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>44359</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
@@ -25230,7 +24966,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="A459" sqref="A459:D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29931,7 +29667,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -31018,6 +30754,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>5</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887FD82-F058-1F4C-B9B3-1980B92F8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A704C05-E179-4E4A-BD6F-CA3DD26FD6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6834,6 +6834,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>29</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6942,7 +6949,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11945,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -13044,6 +13051,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -13151,8 +13165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17851,7 +17865,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18950,6 +18964,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>52</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>61.142857142857146</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -19058,7 +19079,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24839,7 +24860,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D459" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D460" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -24858,6 +24879,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>51</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="74"/>
+        <v>58.571428571428569</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -24965,8 +24993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459:D459"/>
+    <sheetView topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:E460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29667,7 +29695,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30766,6 +30794,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>4</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A704C05-E179-4E4A-BD6F-CA3DD26FD6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF359E8-11E2-5349-ADB8-3FC6EEA2A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6847,93 +6847,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>15</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>26.428571428571427</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>30</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>25.285714285714285</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>15</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>24.428571428571427</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>11</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>22.142857142857142</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>16</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>20.571428571428573</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>13</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -6948,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11952,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D463" si="5">AVERAGE(C362:C368)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -13064,93 +13106,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" ref="D464:D466" si="6">AVERAGE(C458:C464)</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -13165,8 +13249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17865,7 +17949,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -18977,93 +19061,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>50</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>56.428571428571431</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>46</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>54.857142857142854</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>31</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>38</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>50.714285714285715</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>53</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>47.714285714285715</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>46</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>45.142857142857146</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -19078,8 +19204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24860,7 +24986,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D460" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D466" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -24892,93 +25018,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>50</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="74"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>53</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="74"/>
+        <v>54.857142857142854</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>51</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="74"/>
+        <v>53.285714285714285</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>52</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="74"/>
+        <v>52.571428571428569</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>48</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="74"/>
+        <v>51.571428571428569</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>42</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="74"/>
+        <v>49.571428571428569</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -24993,8 +25161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:E460"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29695,7 +29863,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -30807,93 +30975,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4285714285714288</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>3</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>4.8571428571428568</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>4</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>4</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>5</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF359E8-11E2-5349-ADB8-3FC6EEA2A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451BECFF-918A-3C4C-BCB7-AFE770E7B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6919,10 +6919,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>29</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>18.428571428571427</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>32</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>20.857142857142858</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -6991,7 +7005,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13146,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="D464" s="3">
-        <f t="shared" ref="D464:D466" si="6">AVERAGE(C458:C464)</f>
+        <f t="shared" ref="D464:D468" si="6">AVERAGE(C458:C464)</f>
         <v>1.1428571428571428</v>
       </c>
     </row>
@@ -13178,10 +13192,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -13249,8 +13277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17949,7 +17977,7 @@
         <v>66</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>73</v>
       </c>
     </row>
@@ -19133,10 +19161,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>51</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>66</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>47.285714285714285</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -19204,8 +19246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24986,7 +25028,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D466" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D468" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -25090,10 +25132,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>36</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="74"/>
+        <v>47.428571428571431</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>30</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="74"/>
+        <v>44.571428571428569</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -25161,8 +25217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29863,7 +29919,7 @@
         <v>8</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D467" si="5">AVERAGE(C362:C368)</f>
         <v>8.4285714285714288</v>
       </c>
     </row>
@@ -31047,10 +31103,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>5</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451BECFF-918A-3C4C-BCB7-AFE770E7B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C367F6-11A7-D24E-90B5-EB06A4341EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C472" sqref="C472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>74</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D470" si="5">AVERAGE(C362:C368)</f>
         <v>65.428571428571431</v>
       </c>
     </row>
@@ -6943,15 +6943,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>3</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>18</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" ref="D471" si="6">AVERAGE(C465:C471)</f>
+        <v>16.142857142857142</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -7004,8 +7025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C471" sqref="C471:D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13216,15 +13237,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" ref="D469:D471" si="7">AVERAGE(C463:C469)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -13278,7 +13320,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19177,7 +19219,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -19185,15 +19227,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>51</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>9</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>44.857142857142854</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>40</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>45.142857142857146</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -19246,8 +19309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25028,7 +25091,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D468" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D471" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -25156,15 +25219,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>25</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="74"/>
+        <v>40.571428571428569</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>25</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="74"/>
+        <v>36.857142857142854</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>25</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="74"/>
+        <v>33</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -25217,8 +25301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31119,7 +31203,7 @@
         <v>5</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
         <v>4</v>
       </c>
     </row>
@@ -31127,15 +31211,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>5</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>5</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="6"/>
+        <v>4.5714285714285712</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>5</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="6"/>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C367F6-11A7-D24E-90B5-EB06A4341EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F1D57-A511-A045-93A3-CC0BFFF98334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="10080" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C472" sqref="C472"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,13 +6971,20 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D472" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>6</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>14.714285714285714</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -7026,7 +7033,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="C471" sqref="C471:D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13241,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="3">
-        <f t="shared" ref="D469:D471" si="7">AVERAGE(C463:C469)</f>
+        <f t="shared" ref="D469:D472" si="7">AVERAGE(C463:C469)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13272,6 +13279,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13320,7 +13334,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19219,7 +19233,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -19262,6 +19276,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>49</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>44.571428571428569</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -19309,8 +19330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25091,7 +25112,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D471" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D472" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -25254,6 +25275,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>25</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="74"/>
+        <v>29.714285714285715</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -25302,7 +25330,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31203,7 +31231,7 @@
         <v>5</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D471" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
         <v>4</v>
       </c>
     </row>
@@ -31246,6 +31274,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F1D57-A511-A045-93A3-CC0BFFF98334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E982779B-4DBC-CC4A-96A8-7BFF05323E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6500" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D472" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D475" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -6991,15 +6991,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>9</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>14</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>16</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>9.7142857142857135</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -7032,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="A473" sqref="A473:D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13248,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="3">
-        <f t="shared" ref="D469:D472" si="7">AVERAGE(C463:C469)</f>
+        <f t="shared" ref="D469:D475" si="7">AVERAGE(C463:C469)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13292,15 +13313,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13333,8 +13375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19233,7 +19275,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -19289,15 +19331,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>44</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>44.285714285714285</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>18</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>39.571428571428569</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>42</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>36.142857142857146</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -19330,8 +19393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25112,7 +25175,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D472" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D475" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -25288,15 +25351,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>24</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="74"/>
+        <v>27.142857142857142</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>22</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="74"/>
+        <v>25.142857142857142</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>19</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="74"/>
+        <v>23.571428571428573</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -25329,8 +25413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31231,7 +31315,7 @@
         <v>5</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D472" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
         <v>4</v>
       </c>
     </row>
@@ -31287,15 +31371,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E982779B-4DBC-CC4A-96A8-7BFF05323E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EDF9E-F42B-CC45-BCA2-CC2441575A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J479"/>
+  <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D475" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D484" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7027,20 +7027,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>14</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>11.285714285714286</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>4</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>9.2857142857142865</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>8.1428571428571423</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>6.8571428571428568</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>6</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -7051,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A473" sqref="A473:D475"/>
+    <sheetView topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13269,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="3">
-        <f t="shared" ref="D469:D475" si="7">AVERAGE(C463:C469)</f>
+        <f t="shared" ref="D469:D484" si="7">AVERAGE(C463:C469)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13349,20 +13567,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -13373,10 +13809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19275,7 +19711,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -19367,20 +19803,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>20</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>31.714285714285715</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>27</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>34.285714285714285</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>25</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>32.142857142857146</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>27</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>31</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>27.142857142857142</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>15</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>26.714285714285715</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>30</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>16</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>24.428571428571427</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>9</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>21.857142857142858</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -19391,10 +20045,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25175,7 +25829,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D475" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D484" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -25387,20 +26041,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>20</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="74"/>
+        <v>22.857142857142858</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>20</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="74"/>
+        <v>22.142857142857142</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>21</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="74"/>
+        <v>21.571428571428573</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>21</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="74"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>18</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="74"/>
+        <v>20.142857142857142</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>17</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="74"/>
+        <v>19.428571428571427</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>15</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="74"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>13</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="74"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>13</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="74"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -25411,10 +26283,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31315,7 +32187,7 @@
         <v>5</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D475" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
         <v>4</v>
       </c>
     </row>
@@ -31407,20 +32279,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6EDF9E-F42B-CC45-BCA2-CC2441575A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCE186-E254-794A-99A9-1354F527FC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D484" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D485" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7134,6 +7134,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -7272,7 +7279,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13487,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="3">
-        <f t="shared" ref="D469:D484" si="7">AVERAGE(C463:C469)</f>
+        <f t="shared" ref="D469:D485" si="7">AVERAGE(C463:C469)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13674,6 +13681,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13812,7 +13826,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19711,7 +19725,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -19910,6 +19924,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>19</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -20048,7 +20069,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25829,7 +25850,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D484" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D485" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -26148,6 +26169,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>10</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="74"/>
+        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -26286,7 +26314,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32187,7 +32215,7 @@
         <v>5</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D484" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
         <v>4</v>
       </c>
     </row>
@@ -32386,6 +32414,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Reggio Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCE186-E254-794A-99A9-1354F527FC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CB54A-2D6D-6A4D-B089-10FC5D46283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D485" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D493" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7147,40 +7147,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>11</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>33</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>8.4285714285714288</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>8.4285714285714288</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>33</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>12.285714285714286</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>7</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>13.142857142857142</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>9</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>23</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>16.571428571428573</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -7278,8 +7334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="C494" sqref="C494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13694,40 +13750,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" ref="D486:D487" si="8">AVERAGE(C480:C486)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="8"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" ref="D488:D489" si="9">AVERAGE(C482:C488)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="9"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490" si="10">AVERAGE(C484:C490)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491" si="11">AVERAGE(C485:C491)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492" si="12">AVERAGE(C486:C492)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="13">AVERAGE(C487:C493)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13825,8 +13937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19725,7 +19837,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D493" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -19937,40 +20049,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>13</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>29</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>18.714285714285715</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>10</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>13.714285714285714</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>43</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>17.571428571428573</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>16.428571428571427</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>5</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>14.428571428571429</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>11</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -20068,8 +20236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493:D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25850,7 +26018,7 @@
         <v>55</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D485" si="74">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D487" si="74">AVERAGE(C452:C458)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -26182,40 +26350,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>10</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="74"/>
+        <v>13.714285714285714</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>9</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="74"/>
+        <v>12.428571428571429</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>9</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" ref="D488" si="75">AVERAGE(C482:C488)</f>
+        <v>11.285714285714286</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>9</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489:D492" si="76">AVERAGE(C483:C489)</f>
+        <v>10.428571428571429</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>8</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="76"/>
+        <v>9.7142857142857135</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>9</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="76"/>
+        <v>9.1428571428571423</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>9</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="76"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>9</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="77">AVERAGE(C487:C493)</f>
+        <v>8.8571428571428577</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -26313,8 +26537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493:D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32215,7 +32439,7 @@
         <v>5</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D485" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D486" si="6">AVERAGE(C462:C468)</f>
         <v>4</v>
       </c>
     </row>
@@ -32427,40 +32651,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487:D488" si="7">AVERAGE(C481:C487)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="8">AVERAGE(C483:C489)</f>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490" si="9">AVERAGE(C484:C490)</f>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491" si="10">AVERAGE(C485:C491)</f>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492" si="11">AVERAGE(C486:C492)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="12">AVERAGE(C487:C493)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41CB54A-2D6D-6A4D-B089-10FC5D46283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE401279-9E84-4249-9CFB-5706BBA116B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D493" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D494" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7242,6 +7242,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>12</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7335,7 +7342,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494"/>
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13845,6 +13852,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="14">AVERAGE(C488:C494)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13937,8 +13951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19837,7 +19851,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D493" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D494" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20144,6 +20158,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>15</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>12.142857142857142</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -20237,7 +20258,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D493"/>
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26445,6 +26466,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>9</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="78">AVERAGE(C488:C494)</f>
+        <v>8.8571428571428577</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -26537,8 +26565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D493"/>
+    <sheetView topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32747,6 +32775,13 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="13">AVERAGE(C488:C494)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="5">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE401279-9E84-4249-9CFB-5706BBA116B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6C4C4-BA65-C244-9938-6CF52329CD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="C495" sqref="C495:C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D494" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D496" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7255,10 +7255,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>27</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>15.857142857142858</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>16</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>18.142857142857142</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -7341,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13865,10 +13879,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" ref="D495" si="15">AVERAGE(C489:C495)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" ref="D496" si="16">AVERAGE(C490:C496)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -13951,8 +13979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19851,7 +19879,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D494" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D496" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20171,10 +20199,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>13</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>12.571428571428571</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>10</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -20258,7 +20300,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26471,7 +26513,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494" si="78">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D496" si="78">AVERAGE(C488:C494)</f>
         <v>8.8571428571428577</v>
       </c>
     </row>
@@ -26479,10 +26521,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>11</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="78"/>
+        <v>9.1428571428571423</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>12</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="78"/>
+        <v>9.5714285714285712</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -26565,8 +26621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:D494"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32779,7 +32835,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494" si="13">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D496" si="13">AVERAGE(C488:C494)</f>
         <v>0</v>
       </c>
     </row>
@@ -32787,10 +32843,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="13"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Reggio Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6C4C4-BA65-C244-9938-6CF52329CD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929820A-7637-E040-9C31-3C358E57D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="11780" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="C495" sqref="C495:C496"/>
+    <sheetView topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D496" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D499" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7275,72 +7275,93 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>20</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>20</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>18.142857142857142</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>14</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>18.857142857142858</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -7355,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13895,76 +13916,97 @@
         <v>0</v>
       </c>
       <c r="D496" s="3">
-        <f t="shared" ref="D496" si="16">AVERAGE(C490:C496)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D496:D499" si="16">AVERAGE(C490:C496)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -13979,8 +14021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19879,7 +19921,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D496" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D499" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20219,72 +20261,93 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>5</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -20300,7 +20363,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26513,7 +26576,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D496" si="78">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D499" si="78">AVERAGE(C488:C494)</f>
         <v>8.8571428571428577</v>
       </c>
     </row>
@@ -26541,72 +26604,93 @@
         <v>9.5714285714285712</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="78"/>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="78"/>
+        <v>7.4285714285714288</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="78"/>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -26621,8 +26705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32835,7 +32919,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D496" si="13">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D499" si="13">AVERAGE(C488:C494)</f>
         <v>0</v>
       </c>
     </row>
@@ -32863,72 +32947,93 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929820A-7637-E040-9C31-3C358E57D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60D904-FEDF-2148-919F-902B4410A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="6500" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+      <selection activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D499" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D500" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7314,6 +7314,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>15</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>17.714285714285715</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,7 +7384,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13916,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="D496" s="3">
-        <f t="shared" ref="D496:D499" si="16">AVERAGE(C490:C496)</f>
+        <f t="shared" ref="D496:D500" si="16">AVERAGE(C490:C496)</f>
         <v>0</v>
       </c>
     </row>
@@ -13959,6 +13966,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -14022,7 +14036,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+      <selection activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19921,7 +19935,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D499" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D500" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20300,6 +20314,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>6.5714285714285712</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -20362,8 +20383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="C495" sqref="C495:C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26576,7 +26597,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D499" si="78">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D500" si="78">AVERAGE(C488:C494)</f>
         <v>8.8571428571428577</v>
       </c>
     </row>
@@ -26609,11 +26630,11 @@
         <v>44395</v>
       </c>
       <c r="C497">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D497" s="3">
         <f t="shared" si="78"/>
-        <v>8.5714285714285712</v>
+        <v>10.142857142857142</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -26621,11 +26642,11 @@
         <v>44396</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D498" s="3">
         <f t="shared" si="78"/>
-        <v>7.4285714285714288</v>
+        <v>10.714285714285714</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -26633,16 +26654,23 @@
         <v>44397</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D499" s="3">
         <f t="shared" si="78"/>
-        <v>6.2857142857142856</v>
+        <v>11.142857142857142</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>12</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="78"/>
+        <v>11.571428571428571</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -26705,8 +26733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:C499"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32919,7 +32947,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D499" si="13">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D500" si="13">AVERAGE(C488:C494)</f>
         <v>0</v>
       </c>
     </row>
@@ -32986,6 +33014,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="13"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60D904-FEDF-2148-919F-902B4410A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58167F6-6648-E54A-A418-8FC557CA3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D500" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D504" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7327,20 +7327,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>23</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>19.285714285714285</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>49</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>22.428571428571427</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>48</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>42</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>30.142857142857142</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7384,7 +7412,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13923,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="D496" s="3">
-        <f t="shared" ref="D496:D500" si="16">AVERAGE(C490:C496)</f>
+        <f t="shared" ref="D496:D504" si="16">AVERAGE(C490:C496)</f>
         <v>0</v>
       </c>
     </row>
@@ -13979,20 +14007,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -14035,8 +14091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19935,7 +19991,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D500" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D504" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20327,20 +20383,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>4.4285714285714288</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>7</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -20383,8 +20467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="C495" sqref="C495:C500"/>
+    <sheetView topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26597,7 +26681,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D500" si="78">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D504" si="78">AVERAGE(C488:C494)</f>
         <v>8.8571428571428577</v>
       </c>
     </row>
@@ -26677,20 +26761,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>11</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="78"/>
+        <v>11.857142857142858</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>13</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="78"/>
+        <v>12.142857142857142</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>13</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="78"/>
+        <v>12.285714285714286</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>13</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="78"/>
+        <v>12.428571428571429</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -26733,8 +26845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501:C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32947,7 +33059,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D500" si="13">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D504" si="13">AVERAGE(C488:C494)</f>
         <v>0</v>
       </c>
     </row>
@@ -33027,20 +33139,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="13"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58167F6-6648-E54A-A418-8FC557CA3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C49BC8-7641-194C-BCB5-8D1728FFB01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="C505" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D504" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D506" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7375,10 +7375,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>74</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>37.857142857142854</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>34</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>40.714285714285715</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7412,7 +7426,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13951,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="D496" s="3">
-        <f t="shared" ref="D496:D504" si="16">AVERAGE(C490:C496)</f>
+        <f t="shared" ref="D496:D506" si="16">AVERAGE(C490:C496)</f>
         <v>0</v>
       </c>
     </row>
@@ -14055,10 +14069,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -14092,7 +14120,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="C505" sqref="C505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19991,7 +20019,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D504" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D506" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20431,10 +20459,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>6</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>6</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -20468,7 +20510,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26681,7 +26723,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D504" si="78">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D506" si="78">AVERAGE(C488:C494)</f>
         <v>8.8571428571428577</v>
       </c>
     </row>
@@ -26809,10 +26851,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>14</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="78"/>
+        <v>12.571428571428571</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>14</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="78"/>
+        <v>12.857142857142858</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -26845,8 +26901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C504"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33059,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D504" si="13">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D506" si="13">AVERAGE(C488:C494)</f>
         <v>0</v>
       </c>
     </row>
@@ -33187,10 +33243,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C49BC8-7641-194C-BCB5-8D1728FFB01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4BC30-9BAB-2C48-ADE4-80FD4D07A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505:C506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D506" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D507" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7398,6 +7398,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>56</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>46.571428571428569</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -7426,7 +7433,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14092,6 +14099,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="17">AVERAGE(C501:C507)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -14119,8 +14133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505:C506"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20019,7 +20033,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D506" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D507" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20482,6 +20496,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -20510,7 +20531,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26723,7 +26744,7 @@
         <v>9</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D506" si="78">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D507" si="78">AVERAGE(C488:C494)</f>
         <v>8.8571428571428577</v>
       </c>
     </row>
@@ -26874,6 +26895,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>17</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="78"/>
+        <v>13.571428571428571</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -26901,8 +26929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33115,7 +33143,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D506" si="13">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D507" si="13">AVERAGE(C488:C494)</f>
         <v>0</v>
       </c>
     </row>
@@ -33266,6 +33294,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="13"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4BC30-9BAB-2C48-ADE4-80FD4D07A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60D5F1-267A-E344-AD21-094B91B9D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D507" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D508" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7410,6 +7410,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>78</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>54.428571428571431</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -7432,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+    <sheetView topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14111,6 +14118,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" ref="D508" si="18">AVERAGE(C502:C508)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -14134,7 +14148,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20033,7 +20047,7 @@
         <v>66</v>
       </c>
       <c r="D468" s="3">
-        <f t="shared" ref="D468:D507" si="6">AVERAGE(C462:C468)</f>
+        <f t="shared" ref="D468:D508" si="6">AVERAGE(C462:C468)</f>
         <v>47.285714285714285</v>
       </c>
     </row>
@@ -20508,6 +20522,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -20531,7 +20552,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26907,6 +26928,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>17</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" ref="D508" si="79">AVERAGE(C502:C508)</f>
+        <v>14.428571428571429</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -26930,7 +26958,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33307,6 +33335,13 @@
       <c r="A508" s="5">
         <v>44406</v>
       </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" ref="D508" si="14">AVERAGE(C502:C508)</f>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60D5F1-267A-E344-AD21-094B91B9D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE803D-B313-4A4F-AEAD-504A0E965A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J510"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="C522" sqref="C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6284,11 +6284,11 @@
         <v>44312</v>
       </c>
       <c r="C414">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D414" s="3">
         <f t="shared" si="5"/>
-        <v>121.57142857142857</v>
+        <v>121.28571428571429</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="D415" s="3">
         <f t="shared" si="5"/>
-        <v>120.14285714285714</v>
+        <v>119.85714285714286</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="D416" s="3">
         <f t="shared" si="5"/>
-        <v>127.14285714285714</v>
+        <v>126.85714285714286</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="D417" s="3">
         <f t="shared" si="5"/>
-        <v>130.14285714285714</v>
+        <v>129.85714285714286</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="D418" s="3">
         <f t="shared" si="5"/>
-        <v>136.14285714285714</v>
+        <v>135.85714285714286</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="D419" s="3">
         <f t="shared" si="5"/>
-        <v>120.85714285714286</v>
+        <v>120.57142857142857</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="D420" s="3">
         <f t="shared" si="5"/>
-        <v>118.42857142857143</v>
+        <v>118.14285714285714</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -6428,11 +6428,11 @@
         <v>44324</v>
       </c>
       <c r="C426">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D426" s="3">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>99.857142857142861</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="D427" s="3">
         <f t="shared" si="5"/>
-        <v>98.285714285714292</v>
+        <v>98.142857142857139</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D428" s="3">
         <f t="shared" si="5"/>
-        <v>96.857142857142861</v>
+        <v>96.714285714285708</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="D429" s="3">
         <f t="shared" si="5"/>
-        <v>92.571428571428569</v>
+        <v>92.428571428571431</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="D430" s="3">
         <f t="shared" si="5"/>
-        <v>86.857142857142861</v>
+        <v>86.714285714285708</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="D431" s="3">
         <f t="shared" si="5"/>
-        <v>92.714285714285708</v>
+        <v>92.571428571428569</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="D432" s="3">
         <f t="shared" si="5"/>
-        <v>87.285714285714292</v>
+        <v>87.142857142857139</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D508" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D521" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7423,10 +7423,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>45</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="6"/>
+        <v>53.857142857142854</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>28</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>69</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="6"/>
+        <v>54.857142857142854</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>48</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="6"/>
+        <v>51.142857142857146</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>63</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="6"/>
+        <v>55.285714285714285</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>38</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="6"/>
+        <v>52.714285714285715</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>55</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="6"/>
+        <v>49.428571428571431</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>113</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="6"/>
+        <v>59.142857142857146</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>91</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="6"/>
+        <v>68.142857142857139</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>47</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>67</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="6"/>
+        <v>67.714285714285708</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>128</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>70</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="6"/>
+        <v>81.571428571428569</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -7437,10 +7683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14131,10 +14377,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509" si="19">AVERAGE(C503:C509)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="20">AVERAGE(C504:C510)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511" si="21">AVERAGE(C505:C511)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512:D513" si="22">AVERAGE(C506:C512)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="22"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514:D516" si="23">AVERAGE(C508:C514)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>4</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="23"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="23"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517" si="24">AVERAGE(C511:C517)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" ref="D518" si="25">AVERAGE(C512:C518)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519" si="26">AVERAGE(C513:C519)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" ref="D520:D521" si="27">AVERAGE(C514:C520)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="27"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -14145,10 +14637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20535,10 +21027,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509:D521" si="7">AVERAGE(C503:C509)</f>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>72</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="7"/>
+        <v>12.285714285714286</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>6</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="7"/>
+        <v>12.285714285714286</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>11</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>37</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="7"/>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>24</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="7"/>
+        <v>21.714285714285715</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>17</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="7"/>
+        <v>24.142857142857142</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>20</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="7"/>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>19</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="7"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>14</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="7"/>
+        <v>20.285714285714285</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>14</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="7"/>
+        <v>20.714285714285715</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="7"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -20549,10 +21287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26941,10 +27679,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>17</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" ref="D509:D512" si="80">AVERAGE(C503:C509)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>23</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="80"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>24</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="80"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>26</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="80"/>
+        <v>19.714285714285715</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>26</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513:D514" si="81">AVERAGE(C507:C513)</f>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>27</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="81"/>
+        <v>22.857142857142858</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>27</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515:D516" si="82">AVERAGE(C509:C515)</f>
+        <v>24.285714285714285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>28</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="82"/>
+        <v>25.857142857142858</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>27</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517:D521" si="83">AVERAGE(C511:C517)</f>
+        <v>26.428571428571427</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>30</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="83"/>
+        <v>27.285714285714285</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>33</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="83"/>
+        <v>28.285714285714285</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>33</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="83"/>
+        <v>29.285714285714285</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>37</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="83"/>
+        <v>30.714285714285715</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -26955,10 +27939,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33339,7 +34323,7 @@
         <v>0</v>
       </c>
       <c r="D508" s="3">
-        <f t="shared" ref="D508" si="14">AVERAGE(C502:C508)</f>
+        <f t="shared" ref="D508:D509" si="14">AVERAGE(C502:C508)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -33347,10 +34331,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="14"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="15">AVERAGE(C504:C510)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511" si="16">AVERAGE(C505:C511)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512" si="17">AVERAGE(C506:C512)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513:D514" si="18">AVERAGE(C507:C513)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515" si="19">AVERAGE(C509:C515)</f>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516" si="20">AVERAGE(C510:C516)</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517:D520" si="21">AVERAGE(C511:C517)</f>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="21"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="21"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" ref="D521" si="22">AVERAGE(C515:C521)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE803D-B313-4A4F-AEAD-504A0E965A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD03676-9C0B-3044-AEF2-52F038A5D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4760" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="C522" sqref="C522"/>
+    <sheetView topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D521" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D522" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7578,6 +7578,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>109</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="6"/>
+        <v>89.285714285714292</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -7686,7 +7693,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14513,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="D520" s="3">
-        <f t="shared" ref="D520:D521" si="27">AVERAGE(C514:C520)</f>
+        <f t="shared" ref="D520:D522" si="27">AVERAGE(C514:C520)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -14532,6 +14539,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="27"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14640,7 +14654,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21031,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="D509" s="3">
-        <f t="shared" ref="D509:D521" si="7">AVERAGE(C503:C509)</f>
+        <f t="shared" ref="D509:D522" si="7">AVERAGE(C503:C509)</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -21182,6 +21196,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>15</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="7"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -21289,8 +21310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27779,7 +27800,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="3">
-        <f t="shared" ref="D517:D521" si="83">AVERAGE(C511:C517)</f>
+        <f t="shared" ref="D517:D522" si="83">AVERAGE(C511:C517)</f>
         <v>26.428571428571427</v>
       </c>
     </row>
@@ -27834,6 +27855,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>36</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="83"/>
+        <v>32</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -27941,8 +27969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="C521" sqref="C521:D521"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34479,13 +34507,20 @@
         <v>2</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521" si="22">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D522" si="22">AVERAGE(C515:C521)</f>
         <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="4">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD03676-9C0B-3044-AEF2-52F038A5D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F1F64-7268-8948-8347-2BDB54A3738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D522" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D523" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7590,6 +7590,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>85</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="6"/>
+        <v>85.285714285714292</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -7692,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14551,6 +14558,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" ref="D523" si="28">AVERAGE(C517:C523)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14654,7 +14668,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21045,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="D509" s="3">
-        <f t="shared" ref="D509:D522" si="7">AVERAGE(C503:C509)</f>
+        <f t="shared" ref="D509:D523" si="7">AVERAGE(C503:C509)</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -21208,6 +21222,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>49</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="7"/>
+        <v>18.714285714285715</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -21311,7 +21332,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27800,7 +27821,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="3">
-        <f t="shared" ref="D517:D522" si="83">AVERAGE(C511:C517)</f>
+        <f t="shared" ref="D517:D523" si="83">AVERAGE(C511:C517)</f>
         <v>26.428571428571427</v>
       </c>
     </row>
@@ -27867,6 +27888,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>34</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="83"/>
+        <v>32.857142857142854</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -27970,7 +27998,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34507,7 +34535,7 @@
         <v>2</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D522" si="22">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D523" si="22">AVERAGE(C515:C521)</f>
         <v>2</v>
       </c>
     </row>
@@ -34526,6 +34554,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="4">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F1F64-7268-8948-8347-2BDB54A3738B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB1202-F0F7-354C-87C7-F0D005D755A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9080" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="C524" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D523" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D540" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7603,88 +7603,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>122</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="6"/>
+        <v>89.714285714285708</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>114</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="6"/>
+        <v>99.285714285714292</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>70</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="6"/>
+        <v>99.714285714285708</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>75</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="6"/>
+        <v>92.142857142857139</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>103</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="6"/>
+        <v>96.857142857142861</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>120</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="6"/>
+        <v>98.428571428571431</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>117</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>161</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="6"/>
+        <v>108.57142857142857</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>115</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="6"/>
+        <v>108.71428571428571</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>168</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="6"/>
+        <v>122.71428571428571</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>113</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="6"/>
+        <v>128.14285714285714</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>127</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="6"/>
+        <v>131.57142857142858</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>108</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="6"/>
+        <v>129.85714285714286</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>137</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="6"/>
+        <v>132.71428571428572</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>132</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="6"/>
+        <v>128.57142857142858</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>166</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="6"/>
+        <v>135.85714285714286</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>134</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -7699,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="C513" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14563,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="3">
-        <f t="shared" ref="D523" si="28">AVERAGE(C517:C523)</f>
+        <f t="shared" ref="D523:D524" si="28">AVERAGE(C517:C523)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -14571,88 +14690,207 @@
       <c r="A524" s="4">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="28"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" ref="D525" si="29">AVERAGE(C519:C525)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" ref="D526" si="30">AVERAGE(C520:C526)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" ref="D527:D528" si="31">AVERAGE(C521:C527)</f>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="31"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" ref="D529" si="32">AVERAGE(C523:C529)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" ref="D530:D534" si="33">AVERAGE(C524:C530)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="33"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="33"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="33"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="33"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" ref="D535" si="34">AVERAGE(C529:C535)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" ref="D536:D538" si="35">AVERAGE(C530:C536)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="35"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>2</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="35"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" ref="D539:D540" si="36">AVERAGE(C533:C539)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>2</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="36"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
       </c>
@@ -14667,8 +14905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="C513" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21059,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="D509" s="3">
-        <f t="shared" ref="D509:D523" si="7">AVERAGE(C503:C509)</f>
+        <f t="shared" ref="D509:D540" si="7">AVERAGE(C503:C509)</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -21235,88 +21473,207 @@
       <c r="A524" s="4">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>45</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="7"/>
+        <v>22.285714285714285</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>45</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>92</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="7"/>
+        <v>37.142857142857146</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>88</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="7"/>
+        <v>47.714285714285715</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>83</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="7"/>
+        <v>59.571428571428569</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>43</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="7"/>
+        <v>63.571428571428569</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>33</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="7"/>
+        <v>61.285714285714285</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>62</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="7"/>
+        <v>63.714285714285715</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>48</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="7"/>
+        <v>64.142857142857139</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>61</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="7"/>
+        <v>59.714285714285715</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>37</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="7"/>
+        <v>52.428571428571431</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>52</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>102</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="7"/>
+        <v>56.428571428571431</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>84</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="7"/>
+        <v>63.714285714285715</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>46</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="7"/>
+        <v>61.428571428571431</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="7"/>
+        <v>54.571428571428569</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>199</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="7"/>
+        <v>74.285714285714292</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
       </c>
@@ -21331,8 +21688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="C531" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27821,7 +28178,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="3">
-        <f t="shared" ref="D517:D523" si="83">AVERAGE(C511:C517)</f>
+        <f t="shared" ref="D517:D540" si="83">AVERAGE(C511:C517)</f>
         <v>26.428571428571427</v>
       </c>
     </row>
@@ -27901,88 +28258,207 @@
       <c r="A524" s="4">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>33</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="83"/>
+        <v>33.714285714285715</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>34</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="83"/>
+        <v>34.285714285714285</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>39</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="83"/>
+        <v>35.142857142857146</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>40</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="83"/>
+        <v>36.142857142857146</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>46</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="83"/>
+        <v>37.428571428571431</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>56</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="83"/>
+        <v>40.285714285714285</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>58</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="83"/>
+        <v>43.714285714285715</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>54</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="83"/>
+        <v>46.714285714285715</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>49</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="83"/>
+        <v>48.857142857142854</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>54</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="83"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>51</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="83"/>
+        <v>52.571428571428569</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>54</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="83"/>
+        <v>53.714285714285715</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>58</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="83"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>64</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="83"/>
+        <v>54.857142857142854</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>61</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="83"/>
+        <v>55.857142857142854</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>65</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="83"/>
+        <v>58.142857142857146</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>70</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="83"/>
+        <v>60.428571428571431</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
       </c>
@@ -27997,8 +28473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="C513" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34535,7 +35011,7 @@
         <v>2</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D523" si="22">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D536" si="22">AVERAGE(C515:C521)</f>
         <v>2</v>
       </c>
     </row>
@@ -34567,88 +35043,207 @@
       <c r="A524" s="4">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="4">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="4">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="22"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="4">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="22"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="4">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>3</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="22"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="4">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="22"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="4">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>4</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="22"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>3</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="22"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="4">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="22"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="4">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>4</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="22"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="4">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>6</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="22"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="4">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>6</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="22"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="4">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>6</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" ref="D537" si="23">AVERAGE(C531:C537)</f>
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>6</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538" si="24">AVERAGE(C532:C538)</f>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="4">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>6</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" ref="D539:D540" si="25">AVERAGE(C533:C539)</f>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="4">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>5</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="25"/>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
       </c>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB1202-F0F7-354C-87C7-F0D005D755A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A923F-F8C9-8147-843B-57D3C8B43D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="C524" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D540" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D541" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7806,6 +7806,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>82</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="6"/>
+        <v>126.57142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +7826,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="C513" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14874,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="D539" s="3">
-        <f t="shared" ref="D539:D540" si="36">AVERAGE(C533:C539)</f>
+        <f t="shared" ref="D539:D541" si="36">AVERAGE(C533:C539)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -14893,6 +14900,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="36"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -14906,7 +14920,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="C513" sqref="C1:C1048576"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21297,7 +21311,7 @@
         <v>0</v>
       </c>
       <c r="D509" s="3">
-        <f t="shared" ref="D509:D540" si="7">AVERAGE(C503:C509)</f>
+        <f t="shared" ref="D509:D541" si="7">AVERAGE(C503:C509)</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -21676,6 +21690,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>72</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="7"/>
+        <v>79.285714285714292</v>
       </c>
     </row>
   </sheetData>
@@ -21688,8 +21709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="C531" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28178,7 +28199,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="3">
-        <f t="shared" ref="D517:D540" si="83">AVERAGE(C511:C517)</f>
+        <f t="shared" ref="D517:D541" si="83">AVERAGE(C511:C517)</f>
         <v>26.428571428571427</v>
       </c>
     </row>
@@ -28461,6 +28482,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>72</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="83"/>
+        <v>63.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -28473,8 +28501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="C513" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35227,7 +35255,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="3">
-        <f t="shared" ref="D539:D540" si="25">AVERAGE(C533:C539)</f>
+        <f t="shared" ref="D539:D541" si="25">AVERAGE(C533:C539)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -35246,6 +35274,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="4">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>6</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="25"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A923F-F8C9-8147-843B-57D3C8B43D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38815D41-A915-6C43-B289-5C1E7CC70908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6971,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D471" s="3">
-        <f t="shared" ref="D471:D541" si="6">AVERAGE(C465:C471)</f>
+        <f t="shared" ref="D471:D542" si="6">AVERAGE(C465:C471)</f>
         <v>16.142857142857142</v>
       </c>
     </row>
@@ -7813,6 +7813,18 @@
       <c r="D541" s="3">
         <f t="shared" si="6"/>
         <v>126.57142857142857</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>107</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="6"/>
+        <v>123.71428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -7823,10 +7835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14881,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="D539" s="3">
-        <f t="shared" ref="D539:D541" si="36">AVERAGE(C533:C539)</f>
+        <f t="shared" ref="D539:D542" si="36">AVERAGE(C533:C539)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -14905,6 +14917,18 @@
         <v>1</v>
       </c>
       <c r="D541" s="3">
+        <f t="shared" si="36"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542" s="3">
         <f t="shared" si="36"/>
         <v>0.8571428571428571</v>
       </c>
@@ -14917,10 +14941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21311,7 +21335,7 @@
         <v>0</v>
       </c>
       <c r="D509" s="3">
-        <f t="shared" ref="D509:D541" si="7">AVERAGE(C503:C509)</f>
+        <f t="shared" ref="D509:D542" si="7">AVERAGE(C503:C509)</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -21697,6 +21721,18 @@
       <c r="D541" s="3">
         <f t="shared" si="7"/>
         <v>79.285714285714292</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>111</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="7"/>
+        <v>87.714285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -21707,10 +21743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28199,7 +28235,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="3">
-        <f t="shared" ref="D517:D541" si="83">AVERAGE(C511:C517)</f>
+        <f t="shared" ref="D517:D542" si="83">AVERAGE(C511:C517)</f>
         <v>26.428571428571427</v>
       </c>
     </row>
@@ -28489,6 +28525,18 @@
       <c r="D541" s="3">
         <f t="shared" si="83"/>
         <v>63.428571428571431</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>75</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="83"/>
+        <v>66.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -28499,10 +28547,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35255,7 +35303,7 @@
         <v>6</v>
       </c>
       <c r="D539" s="3">
-        <f t="shared" ref="D539:D541" si="25">AVERAGE(C533:C539)</f>
+        <f t="shared" ref="D539:D542" si="25">AVERAGE(C533:C539)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -35281,6 +35329,18 @@
       <c r="D541" s="3">
         <f t="shared" si="25"/>
         <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>7</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="25"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
+++ b/dati/provincia/Reggio Calabria/Reggio Calabria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Reggio Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38815D41-A915-6C43-B289-5C1E7CC70908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88464F-3A82-C643-8A96-9BF82F0263C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7827,6 +7827,158 @@
         <v>123.71428571428571</v>
       </c>
     </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>144</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" ref="D543" si="7">AVERAGE(C537:C543)</f>
+        <v>128.85714285714286</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7835,10 +7987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14933,6 +15085,158 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" ref="D543" si="37">AVERAGE(C537:C543)</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14941,10 +15245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21335,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="D509" s="3">
-        <f t="shared" ref="D509:D542" si="7">AVERAGE(C503:C509)</f>
+        <f t="shared" ref="D509:D543" si="7">AVERAGE(C503:C509)</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -21733,6 +22037,158 @@
       <c r="D542" s="3">
         <f t="shared" si="7"/>
         <v>87.714285714285708</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>84</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="7"/>
+        <v>85.142857142857139</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -21743,10 +22199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28235,7 +28691,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="3">
-        <f t="shared" ref="D517:D542" si="83">AVERAGE(C511:C517)</f>
+        <f t="shared" ref="D517:D543" si="83">AVERAGE(C511:C517)</f>
         <v>26.428571428571427</v>
       </c>
     </row>
@@ -28537,6 +28993,158 @@
       <c r="D542" s="3">
         <f t="shared" si="83"/>
         <v>66.428571428571431</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>86</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="83"/>
+        <v>70.428571428571431</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -28547,10 +29155,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35343,6 +35951,158 @@
         <v>6</v>
       </c>
     </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>7</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" ref="D543" si="26">AVERAGE(C537:C543)</f>
+        <v>6.1428571428571432</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
